--- a/manuscript/Table template_Final_MLKTaddedtotals.xlsx
+++ b/manuscript/Table template_Final_MLKTaddedtotals.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
-  <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20356"/>
+  <workbookPr checkCompatibility="1" autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkeomec\Documents\GitHub\eHearing\manuscript\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C16A399-337B-4691-90E7-B8518B36572D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25598" windowHeight="15518" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overall" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1 (2)" sheetId="5" r:id="rId3"/>
+    <sheet name="Q41 subjects" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1 (2)" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="108">
   <si>
     <t>Global Inperson data</t>
   </si>
@@ -346,12 +353,15 @@
   <si>
     <t>Total In person</t>
   </si>
+  <si>
+    <t> 8.7500</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,6 +475,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -556,7 +580,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -640,6 +664,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="9" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -653,7 +693,7 @@
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="9"/>
+    <cellStyle name="Normal 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -669,7 +709,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -683,7 +723,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -777,27 +816,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>368.0</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>343.0</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>453.0</c:v>
+                  <c:v>453</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>196.0</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>192.0</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1952-453D-83A1-AB5D802B5CB6}"/>
             </c:ext>
@@ -860,27 +899,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1172.0</c:v>
+                  <c:v>1172</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>627.0</c:v>
+                  <c:v>627</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>327.0</c:v>
+                  <c:v>327</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>188.0</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>134.0</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1952-453D-83A1-AB5D802B5CB6}"/>
             </c:ext>
@@ -943,27 +982,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>630.0</c:v>
+                  <c:v>630</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>580.0</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>591.0</c:v>
+                  <c:v>591</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>209.0</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>257.0</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>82.0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1952-453D-83A1-AB5D802B5CB6}"/>
             </c:ext>
@@ -1026,27 +1065,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>59.0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>582.0</c:v>
+                  <c:v>582</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>340.0</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>106.0</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1952-453D-83A1-AB5D802B5CB6}"/>
             </c:ext>
@@ -1201,7 +1240,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1269,7 +1307,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1355,36 +1393,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>84.0</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>140.0</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-69C5-4EA5-977B-BE89A8E55281}"/>
             </c:ext>
@@ -1456,36 +1494,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>72.0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>125.0</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-69C5-4EA5-977B-BE89A8E55281}"/>
             </c:ext>
@@ -1557,36 +1595,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>86.0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>185.0</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-69C5-4EA5-977B-BE89A8E55281}"/>
             </c:ext>
@@ -1658,36 +1696,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87.0</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-69C5-4EA5-977B-BE89A8E55281}"/>
             </c:ext>
@@ -1759,36 +1797,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>66.0</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-69C5-4EA5-977B-BE89A8E55281}"/>
             </c:ext>
@@ -1860,36 +1898,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-69C5-4EA5-977B-BE89A8E55281}"/>
             </c:ext>
@@ -2044,7 +2082,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2112,7 +2149,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2126,7 +2163,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2222,27 +2258,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>368.0</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>343.0</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>453.0</c:v>
+                  <c:v>453</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>196.0</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>192.0</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1952-453D-83A1-AB5D802B5CB6}"/>
             </c:ext>
@@ -2305,27 +2341,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1172.0</c:v>
+                  <c:v>1172</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>627.0</c:v>
+                  <c:v>627</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>327.0</c:v>
+                  <c:v>327</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>188.0</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>134.0</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1952-453D-83A1-AB5D802B5CB6}"/>
             </c:ext>
@@ -2388,27 +2424,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>630.0</c:v>
+                  <c:v>630</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>580.0</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>591.0</c:v>
+                  <c:v>591</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>209.0</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>257.0</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>82.0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1952-453D-83A1-AB5D802B5CB6}"/>
             </c:ext>
@@ -2471,27 +2507,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>59.0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>582.0</c:v>
+                  <c:v>582</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>340.0</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>106.0</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1952-453D-83A1-AB5D802B5CB6}"/>
             </c:ext>
@@ -2646,7 +2682,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2714,7 +2749,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2788,24 +2823,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>166.0</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A3F8-47AA-B713-0BDDC997606E}"/>
             </c:ext>
@@ -2865,24 +2900,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>186.0</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A3F8-47AA-B713-0BDDC997606E}"/>
             </c:ext>
@@ -3037,7 +3072,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5348,7 +5382,7 @@
         <xdr:cNvPr id="1025" name="AutoShape 1" descr="http://127.0.0.1:27185/graphics/plot_zoom_png?width=973&amp;height=900">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{16E51962-F762-452A-B5AE-28F15725FBBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5367,7 +5401,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5393,7 +5427,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5423,7 +5463,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5453,7 +5499,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5483,7 +5535,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5790,27 +5848,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AO90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G25" workbookViewId="0">
-      <selection activeCell="S53" sqref="S53"/>
+    <sheetView topLeftCell="G24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="18" width="14.5" customWidth="1"/>
-    <col min="19" max="19" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="14.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="18" width="14.46484375" customWidth="1"/>
+    <col min="19" max="19" width="26.46484375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18">
@@ -6168,7 +6226,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:41" ht="16" thickBot="1">
+    <row r="24" spans="1:41" ht="16.149999999999999" thickBot="1">
       <c r="B24" s="14" t="s">
         <v>56</v>
       </c>
@@ -6216,7 +6274,7 @@
       <c r="T24" s="25"/>
       <c r="AO24" s="14"/>
     </row>
-    <row r="25" spans="1:41" ht="16" thickBot="1">
+    <row r="25" spans="1:41" ht="16.149999999999999" thickBot="1">
       <c r="B25" s="15" t="s">
         <v>101</v>
       </c>
@@ -6264,7 +6322,7 @@
       <c r="T25" s="25"/>
       <c r="AO25" s="16"/>
     </row>
-    <row r="26" spans="1:41" ht="16" thickBot="1">
+    <row r="26" spans="1:41" ht="16.149999999999999" thickBot="1">
       <c r="B26" s="15" t="s">
         <v>1</v>
       </c>
@@ -6316,7 +6374,7 @@
       <c r="T26" s="25"/>
       <c r="AO26" s="16"/>
     </row>
-    <row r="27" spans="1:41" ht="16" thickBot="1">
+    <row r="27" spans="1:41" ht="16.149999999999999" thickBot="1">
       <c r="B27" s="15" t="s">
         <v>91</v>
       </c>
@@ -6373,7 +6431,7 @@
       <c r="T27" s="25"/>
       <c r="AO27" s="16"/>
     </row>
-    <row r="28" spans="1:41" ht="16" thickBot="1">
+    <row r="28" spans="1:41" ht="16.149999999999999" thickBot="1">
       <c r="A28" t="s">
         <v>89</v>
       </c>
@@ -6428,7 +6486,7 @@
       <c r="T28" s="25"/>
       <c r="AO28" s="16"/>
     </row>
-    <row r="29" spans="1:41" ht="16" thickBot="1">
+    <row r="29" spans="1:41" ht="16.149999999999999" thickBot="1">
       <c r="B29" s="15" t="s">
         <v>92</v>
       </c>
@@ -6480,78 +6538,48 @@
       <c r="T29" s="25"/>
       <c r="AO29" s="16"/>
     </row>
-    <row r="30" spans="1:41" ht="15">
+    <row r="30" spans="1:41" ht="15.75">
       <c r="A30" t="s">
         <v>90</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="21">
-        <v>205</v>
-      </c>
-      <c r="D30" s="21">
-        <v>151</v>
-      </c>
-      <c r="E30" s="21">
-        <v>210</v>
-      </c>
-      <c r="F30" s="21">
-        <v>94</v>
-      </c>
-      <c r="G30" s="21">
-        <v>78</v>
-      </c>
-      <c r="H30" s="21">
-        <v>21</v>
-      </c>
-      <c r="I30">
-        <v>759</v>
-      </c>
-      <c r="J30" s="21">
-        <v>163</v>
-      </c>
-      <c r="K30" s="21">
-        <v>192</v>
-      </c>
-      <c r="L30" s="21">
-        <v>243</v>
-      </c>
-      <c r="M30" s="21">
-        <v>102</v>
-      </c>
-      <c r="N30" s="21">
-        <v>114</v>
-      </c>
-      <c r="O30" s="21">
-        <v>39</v>
-      </c>
-      <c r="P30">
-        <v>853</v>
-      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
       <c r="Q30" s="36" t="s">
         <v>104</v>
       </c>
       <c r="R30" s="25">
         <f>SUM(I30,P30)</f>
-        <v>1612</v>
+        <v>0</v>
       </c>
       <c r="S30" s="36" t="s">
         <v>103</v>
       </c>
       <c r="T30" s="25">
         <f>SUM(R27, R30)</f>
-        <v>2067</v>
+        <v>455</v>
       </c>
       <c r="AO30" s="22"/>
     </row>
-    <row r="31" spans="1:41" ht="15">
+    <row r="31" spans="1:41" ht="15.75">
       <c r="Q31" s="25"/>
       <c r="R31" s="25"/>
       <c r="S31" s="25"/>
       <c r="T31" s="25"/>
     </row>
-    <row r="32" spans="1:41" ht="16" thickBot="1">
+    <row r="32" spans="1:41" ht="16.149999999999999" thickBot="1">
       <c r="C32" s="14" t="s">
         <v>25</v>
       </c>
@@ -6591,7 +6619,7 @@
       <c r="S32" s="25"/>
       <c r="T32" s="25"/>
     </row>
-    <row r="33" spans="1:20" ht="16" thickBot="1">
+    <row r="33" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="B33" s="15" t="s">
         <v>101</v>
       </c>
@@ -6637,7 +6665,7 @@
       <c r="S33" s="25"/>
       <c r="T33" s="25"/>
     </row>
-    <row r="34" spans="1:20" ht="16" thickBot="1">
+    <row r="34" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="B34" s="15" t="s">
         <v>1</v>
       </c>
@@ -6688,7 +6716,7 @@
       <c r="S34" s="25"/>
       <c r="T34" s="25"/>
     </row>
-    <row r="35" spans="1:20" ht="16" thickBot="1">
+    <row r="35" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="B35" s="15" t="s">
         <v>91</v>
       </c>
@@ -6744,7 +6772,7 @@
       <c r="S35" s="25"/>
       <c r="T35" s="25"/>
     </row>
-    <row r="36" spans="1:20" ht="16" thickBot="1">
+    <row r="36" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="A36" t="s">
         <v>89</v>
       </c>
@@ -6798,7 +6826,7 @@
       <c r="S36" s="25"/>
       <c r="T36" s="25"/>
     </row>
-    <row r="37" spans="1:20" ht="16" thickBot="1">
+    <row r="37" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="B37" s="15" t="s">
         <v>92</v>
       </c>
@@ -6849,77 +6877,47 @@
       <c r="S37" s="25"/>
       <c r="T37" s="25"/>
     </row>
-    <row r="38" spans="1:20" ht="15">
+    <row r="38" spans="1:20" ht="15.75">
       <c r="A38" t="s">
         <v>90</v>
       </c>
       <c r="B38" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="21">
-        <v>603</v>
-      </c>
-      <c r="D38" s="21">
-        <v>253</v>
-      </c>
-      <c r="E38" s="21">
-        <v>137</v>
-      </c>
-      <c r="F38" s="21">
-        <v>77</v>
-      </c>
-      <c r="G38" s="21">
-        <v>59</v>
-      </c>
-      <c r="H38" s="21">
-        <v>12</v>
-      </c>
-      <c r="I38">
-        <v>1141</v>
-      </c>
-      <c r="J38" s="17">
-        <v>569</v>
-      </c>
-      <c r="K38" s="21">
-        <v>374</v>
-      </c>
-      <c r="L38" s="21">
-        <v>190</v>
-      </c>
-      <c r="M38" s="21">
-        <v>111</v>
-      </c>
-      <c r="N38" s="21">
-        <v>75</v>
-      </c>
-      <c r="O38" s="21">
-        <v>16</v>
-      </c>
-      <c r="P38">
-        <v>1335</v>
-      </c>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
       <c r="Q38" s="36" t="s">
         <v>104</v>
       </c>
       <c r="R38" s="25">
         <f>SUM(I38,P38)</f>
-        <v>2476</v>
+        <v>0</v>
       </c>
       <c r="S38" s="36" t="s">
         <v>103</v>
       </c>
       <c r="T38" s="25">
         <f>SUM(R35, R38)</f>
-        <v>3009</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="15">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="15.75">
       <c r="Q39" s="25"/>
       <c r="R39" s="25"/>
       <c r="S39" s="25"/>
       <c r="T39" s="25"/>
     </row>
-    <row r="40" spans="1:20" ht="16" thickBot="1">
+    <row r="40" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="C40" s="14" t="s">
         <v>11</v>
       </c>
@@ -6962,7 +6960,7 @@
       <c r="S40" s="25"/>
       <c r="T40" s="25"/>
     </row>
-    <row r="41" spans="1:20" ht="16" thickBot="1">
+    <row r="41" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="B41" s="15" t="s">
         <v>101</v>
       </c>
@@ -7008,7 +7006,7 @@
       <c r="S41" s="25"/>
       <c r="T41" s="25"/>
     </row>
-    <row r="42" spans="1:20" ht="16" thickBot="1">
+    <row r="42" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="B42" s="15" t="s">
         <v>1</v>
       </c>
@@ -7059,7 +7057,7 @@
       <c r="S42" s="25"/>
       <c r="T42" s="25"/>
     </row>
-    <row r="43" spans="1:20" ht="16" thickBot="1">
+    <row r="43" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="B43" s="15" t="s">
         <v>91</v>
       </c>
@@ -7115,7 +7113,7 @@
       <c r="S43" s="25"/>
       <c r="T43" s="25"/>
     </row>
-    <row r="44" spans="1:20" ht="16" thickBot="1">
+    <row r="44" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -7169,7 +7167,7 @@
       <c r="S44" s="25"/>
       <c r="T44" s="25"/>
     </row>
-    <row r="45" spans="1:20" ht="16" thickBot="1">
+    <row r="45" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="B45" s="15" t="s">
         <v>92</v>
       </c>
@@ -7220,71 +7218,40 @@
       <c r="S45" s="25"/>
       <c r="T45" s="25"/>
     </row>
-    <row r="46" spans="1:20" ht="15">
+    <row r="46" spans="1:20" ht="15.75">
       <c r="A46" t="s">
         <v>90</v>
       </c>
       <c r="B46" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C46">
-        <v>327</v>
-      </c>
-      <c r="D46" s="17">
-        <v>274</v>
-      </c>
-      <c r="E46" s="17">
-        <v>290</v>
-      </c>
-      <c r="F46" s="17">
-        <v>83</v>
-      </c>
-      <c r="G46" s="17">
-        <v>111</v>
-      </c>
-      <c r="H46" s="17">
-        <v>29</v>
-      </c>
-      <c r="I46">
-        <v>1114</v>
-      </c>
-      <c r="J46" s="17">
-        <v>303</v>
-      </c>
-      <c r="K46" s="17">
-        <v>306</v>
-      </c>
-      <c r="L46" s="17">
-        <v>301</v>
-      </c>
-      <c r="M46" s="17">
-        <v>126</v>
-      </c>
-      <c r="N46" s="17">
-        <v>146</v>
-      </c>
-      <c r="O46" s="17">
-        <v>53</v>
-      </c>
-      <c r="P46">
-        <v>1235</v>
-      </c>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
       <c r="Q46" s="36" t="s">
         <v>104</v>
       </c>
       <c r="R46" s="25">
         <f>SUM(I46,P46)</f>
-        <v>2349</v>
+        <v>0</v>
       </c>
       <c r="S46" s="36" t="s">
         <v>103</v>
       </c>
       <c r="T46" s="25">
         <f>SUM(R43, R46)</f>
-        <v>2768</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="16" thickBot="1">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="C47" s="14" t="s">
         <v>12</v>
       </c>
@@ -7325,7 +7292,7 @@
       <c r="S47" s="25"/>
       <c r="T47" s="25"/>
     </row>
-    <row r="48" spans="1:20" ht="16" thickBot="1">
+    <row r="48" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="B48" s="15" t="s">
         <v>101</v>
       </c>
@@ -7371,7 +7338,7 @@
       <c r="S48" s="25"/>
       <c r="T48" s="25"/>
     </row>
-    <row r="49" spans="1:20" ht="16" thickBot="1">
+    <row r="49" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="B49" s="15" t="s">
         <v>1</v>
       </c>
@@ -7422,7 +7389,7 @@
       <c r="S49" s="25"/>
       <c r="T49" s="25"/>
     </row>
-    <row r="50" spans="1:20" ht="16" thickBot="1">
+    <row r="50" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="B50" s="15" t="s">
         <v>91</v>
       </c>
@@ -7478,7 +7445,7 @@
       <c r="S50" s="25"/>
       <c r="T50" s="25"/>
     </row>
-    <row r="51" spans="1:20" ht="16" thickBot="1">
+    <row r="51" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="A51" t="s">
         <v>89</v>
       </c>
@@ -7532,7 +7499,7 @@
       <c r="S51" s="25"/>
       <c r="T51" s="25"/>
     </row>
-    <row r="52" spans="1:20" ht="16" thickBot="1">
+    <row r="52" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="B52" s="15" t="s">
         <v>92</v>
       </c>
@@ -7583,77 +7550,45 @@
       <c r="S52" s="25"/>
       <c r="T52" s="25"/>
     </row>
-    <row r="53" spans="1:20" ht="15">
+    <row r="53" spans="1:20" ht="15.75">
       <c r="A53" t="s">
         <v>90</v>
       </c>
       <c r="B53" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C53">
-        <v>29</v>
-      </c>
-      <c r="D53" s="17">
-        <v>304</v>
-      </c>
-      <c r="E53" s="17">
-        <v>146</v>
-      </c>
-      <c r="F53" s="17">
-        <v>44</v>
-      </c>
-      <c r="G53" s="17">
-        <v>20</v>
-      </c>
-      <c r="H53" s="17">
-        <v>6</v>
-      </c>
-      <c r="I53">
-        <v>549</v>
-      </c>
-      <c r="J53">
-        <v>30</v>
-      </c>
-      <c r="K53" s="17">
-        <v>278</v>
-      </c>
-      <c r="L53" s="17">
-        <v>194</v>
-      </c>
-      <c r="M53" s="17">
-        <v>62</v>
-      </c>
-      <c r="N53" s="17">
-        <v>25</v>
-      </c>
-      <c r="O53" s="17">
-        <v>10</v>
-      </c>
-      <c r="P53">
-        <v>599</v>
-      </c>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
       <c r="Q53" s="36" t="s">
         <v>104</v>
       </c>
       <c r="R53" s="25">
         <f>SUM(I53,P53)</f>
-        <v>1148</v>
+        <v>0</v>
       </c>
       <c r="S53" s="36" t="s">
         <v>103</v>
       </c>
       <c r="T53" s="25">
         <f>SUM(R50, R53)</f>
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" ht="15">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="15.75">
       <c r="Q54" s="25"/>
       <c r="R54" s="25"/>
       <c r="S54" s="25"/>
       <c r="T54" s="25"/>
     </row>
-    <row r="55" spans="1:20" ht="15">
+    <row r="55" spans="1:20" ht="15.75">
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
@@ -7667,10 +7602,10 @@
       </c>
       <c r="T55" s="36">
         <f>SUM(T30,T38,T46,T53)</f>
-        <v>9512</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" ht="15">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="15.75">
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
@@ -7755,17 +7690,1516 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596E2461-13EE-47CE-B33E-C598E8D4EA7B}">
+  <dimension ref="A2:AO33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="2" spans="1:41" ht="16.149999999999999" thickBot="1">
+      <c r="B2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="AO2" s="14"/>
+    </row>
+    <row r="3" spans="1:41" ht="16.149999999999999" thickBot="1">
+      <c r="B3" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="AO3" s="16"/>
+    </row>
+    <row r="4" spans="1:41" ht="16.149999999999999" thickBot="1">
+      <c r="B4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="AO4" s="16"/>
+    </row>
+    <row r="5" spans="1:41" ht="16.149999999999999" thickBot="1">
+      <c r="B5" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="19">
+        <v>51</v>
+      </c>
+      <c r="D5" s="17">
+        <v>58</v>
+      </c>
+      <c r="E5" s="17">
+        <v>53</v>
+      </c>
+      <c r="F5" s="17">
+        <v>32</v>
+      </c>
+      <c r="G5" s="17">
+        <v>23</v>
+      </c>
+      <c r="H5" s="17">
+        <v>14</v>
+      </c>
+      <c r="I5" s="17">
+        <v>231</v>
+      </c>
+      <c r="J5" s="19">
+        <v>38</v>
+      </c>
+      <c r="K5" s="17">
+        <v>59</v>
+      </c>
+      <c r="L5" s="17">
+        <v>51</v>
+      </c>
+      <c r="M5" s="17">
+        <v>33</v>
+      </c>
+      <c r="N5" s="17">
+        <v>26</v>
+      </c>
+      <c r="O5" s="17">
+        <v>16</v>
+      </c>
+      <c r="P5" s="17">
+        <v>223</v>
+      </c>
+      <c r="Q5" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="R5" s="25">
+        <f>SUM(P5,I5)</f>
+        <v>454</v>
+      </c>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="AO5" s="16"/>
+    </row>
+    <row r="6" spans="1:41" ht="16.149999999999999" thickBot="1">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="14">
+        <v>13.125</v>
+      </c>
+      <c r="D6" s="14">
+        <v>19.375</v>
+      </c>
+      <c r="E6" s="14">
+        <v>18.75</v>
+      </c>
+      <c r="F6" s="14">
+        <v>23.75</v>
+      </c>
+      <c r="G6" s="14">
+        <v>22.5</v>
+      </c>
+      <c r="H6" s="14">
+        <v>26.875</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14">
+        <v>26.875</v>
+      </c>
+      <c r="K6" s="14">
+        <v>27.5</v>
+      </c>
+      <c r="L6" s="14">
+        <v>39.375</v>
+      </c>
+      <c r="M6" s="14">
+        <v>30</v>
+      </c>
+      <c r="N6" s="14">
+        <v>33.125</v>
+      </c>
+      <c r="O6" s="14">
+        <v>38.125</v>
+      </c>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="AO6" s="16"/>
+    </row>
+    <row r="7" spans="1:41" ht="16.149999999999999" thickBot="1">
+      <c r="B7" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="14">
+        <v>10.9375</v>
+      </c>
+      <c r="D7" s="14">
+        <v>15.625</v>
+      </c>
+      <c r="E7" s="14">
+        <v>13.75</v>
+      </c>
+      <c r="F7" s="14">
+        <v>21.875</v>
+      </c>
+      <c r="G7" s="14">
+        <v>16.875</v>
+      </c>
+      <c r="H7" s="14">
+        <v>17.1875</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14">
+        <v>17.5</v>
+      </c>
+      <c r="K7" s="14">
+        <v>16.25</v>
+      </c>
+      <c r="L7" s="14">
+        <v>15.3125</v>
+      </c>
+      <c r="M7" s="14">
+        <v>13.125</v>
+      </c>
+      <c r="N7" s="14">
+        <v>9.6875</v>
+      </c>
+      <c r="O7" s="14">
+        <v>15.625</v>
+      </c>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="AO7" s="16"/>
+    </row>
+    <row r="8" spans="1:41" ht="15.75">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="21">
+        <v>205</v>
+      </c>
+      <c r="D8" s="21">
+        <v>151</v>
+      </c>
+      <c r="E8" s="21">
+        <v>210</v>
+      </c>
+      <c r="F8" s="21">
+        <v>94</v>
+      </c>
+      <c r="G8" s="21">
+        <v>78</v>
+      </c>
+      <c r="H8" s="21">
+        <v>21</v>
+      </c>
+      <c r="I8">
+        <v>759</v>
+      </c>
+      <c r="J8" s="21">
+        <v>163</v>
+      </c>
+      <c r="K8" s="21">
+        <v>192</v>
+      </c>
+      <c r="L8" s="21">
+        <v>243</v>
+      </c>
+      <c r="M8" s="21">
+        <v>102</v>
+      </c>
+      <c r="N8" s="21">
+        <v>114</v>
+      </c>
+      <c r="O8" s="21">
+        <v>39</v>
+      </c>
+      <c r="P8">
+        <v>853</v>
+      </c>
+      <c r="Q8" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="R8" s="25">
+        <f>SUM(I8,P8)</f>
+        <v>1612</v>
+      </c>
+      <c r="S8" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="T8" s="25">
+        <f>SUM(R5, R8)</f>
+        <v>2066</v>
+      </c>
+      <c r="AO8" s="22"/>
+    </row>
+    <row r="9" spans="1:41" ht="15.75">
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+    </row>
+    <row r="10" spans="1:41" ht="16.149999999999999" thickBot="1">
+      <c r="C10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+    </row>
+    <row r="11" spans="1:41" ht="16.149999999999999" thickBot="1">
+      <c r="B11" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+    </row>
+    <row r="12" spans="1:41" ht="16.149999999999999" thickBot="1">
+      <c r="B12" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+    </row>
+    <row r="13" spans="1:41" ht="16.149999999999999" thickBot="1">
+      <c r="B13" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="17">
+        <v>61</v>
+      </c>
+      <c r="D13" s="17">
+        <v>84</v>
+      </c>
+      <c r="E13" s="17">
+        <v>62</v>
+      </c>
+      <c r="F13" s="17">
+        <v>34</v>
+      </c>
+      <c r="G13" s="17">
+        <v>20</v>
+      </c>
+      <c r="H13" s="17">
+        <v>5</v>
+      </c>
+      <c r="I13" s="17">
+        <v>266</v>
+      </c>
+      <c r="J13" s="17">
+        <v>56</v>
+      </c>
+      <c r="K13" s="17">
+        <v>69</v>
+      </c>
+      <c r="L13" s="17">
+        <v>56</v>
+      </c>
+      <c r="M13" s="17">
+        <v>40</v>
+      </c>
+      <c r="N13" s="17">
+        <v>23</v>
+      </c>
+      <c r="O13" s="17">
+        <v>13</v>
+      </c>
+      <c r="P13" s="17">
+        <v>257</v>
+      </c>
+      <c r="Q13" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="R13" s="25">
+        <f>SUM(I13,P13)</f>
+        <v>523</v>
+      </c>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+    </row>
+    <row r="14" spans="1:41" ht="16.149999999999999" thickBot="1">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="41">
+        <v>14.375</v>
+      </c>
+      <c r="D14" s="41">
+        <v>20</v>
+      </c>
+      <c r="E14" s="41">
+        <v>16.25</v>
+      </c>
+      <c r="F14" s="41">
+        <v>22.5</v>
+      </c>
+      <c r="G14" s="41">
+        <v>25</v>
+      </c>
+      <c r="H14" s="41">
+        <v>26.875</v>
+      </c>
+      <c r="I14" s="37"/>
+      <c r="J14" s="41">
+        <v>28.75</v>
+      </c>
+      <c r="K14" s="41">
+        <v>33.75</v>
+      </c>
+      <c r="L14" s="41">
+        <v>29.375</v>
+      </c>
+      <c r="M14" s="41">
+        <v>41.25</v>
+      </c>
+      <c r="N14" s="41">
+        <v>45</v>
+      </c>
+      <c r="O14" s="41">
+        <v>45</v>
+      </c>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+    </row>
+    <row r="15" spans="1:41" ht="16.149999999999999" thickBot="1">
+      <c r="B15" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="41">
+        <v>12.5</v>
+      </c>
+      <c r="D15" s="41">
+        <v>15.625</v>
+      </c>
+      <c r="E15" s="41">
+        <v>15</v>
+      </c>
+      <c r="F15" s="41">
+        <v>16.875</v>
+      </c>
+      <c r="G15" s="41">
+        <v>15.9375</v>
+      </c>
+      <c r="H15" s="41">
+        <v>17.1875</v>
+      </c>
+      <c r="I15" s="37"/>
+      <c r="J15" s="41">
+        <v>15</v>
+      </c>
+      <c r="K15" s="41">
+        <v>17.5</v>
+      </c>
+      <c r="L15" s="41">
+        <v>15.625</v>
+      </c>
+      <c r="M15" s="41">
+        <v>21.25</v>
+      </c>
+      <c r="N15" s="41">
+        <v>10</v>
+      </c>
+      <c r="O15" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+    </row>
+    <row r="16" spans="1:41" ht="15.75">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="42">
+        <v>603</v>
+      </c>
+      <c r="D16" s="42">
+        <v>253</v>
+      </c>
+      <c r="E16" s="42">
+        <v>137</v>
+      </c>
+      <c r="F16" s="42">
+        <v>77</v>
+      </c>
+      <c r="G16" s="42">
+        <v>59</v>
+      </c>
+      <c r="H16" s="42">
+        <v>12</v>
+      </c>
+      <c r="I16" s="37">
+        <v>1141</v>
+      </c>
+      <c r="J16" s="38">
+        <v>569</v>
+      </c>
+      <c r="K16" s="42">
+        <v>374</v>
+      </c>
+      <c r="L16" s="42">
+        <v>190</v>
+      </c>
+      <c r="M16" s="42">
+        <v>111</v>
+      </c>
+      <c r="N16" s="42">
+        <v>75</v>
+      </c>
+      <c r="O16" s="42">
+        <v>16</v>
+      </c>
+      <c r="P16">
+        <v>1335</v>
+      </c>
+      <c r="Q16" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="R16" s="25">
+        <f>SUM(I16,P16)</f>
+        <v>2476</v>
+      </c>
+      <c r="S16" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="T16" s="25">
+        <f>SUM(R13, R16)</f>
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="15.75">
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+    </row>
+    <row r="18" spans="1:20" ht="16.149999999999999" thickBot="1">
+      <c r="C18" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="O18" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+    </row>
+    <row r="19" spans="1:20" ht="16.149999999999999" thickBot="1">
+      <c r="B19" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="M19" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="O19" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+    </row>
+    <row r="20" spans="1:20" ht="16.149999999999999" thickBot="1">
+      <c r="B20" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="N20" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="O20" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+    </row>
+    <row r="21" spans="1:20" ht="16.149999999999999" thickBot="1">
+      <c r="B21" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="44">
+        <v>79</v>
+      </c>
+      <c r="D21" s="38">
+        <v>65</v>
+      </c>
+      <c r="E21" s="38">
+        <v>41</v>
+      </c>
+      <c r="F21" s="38">
+        <v>20</v>
+      </c>
+      <c r="G21" s="38">
+        <v>5</v>
+      </c>
+      <c r="H21" s="38">
+        <v>3</v>
+      </c>
+      <c r="I21" s="38">
+        <v>213</v>
+      </c>
+      <c r="J21" s="44">
+        <v>57</v>
+      </c>
+      <c r="K21" s="38">
+        <v>51</v>
+      </c>
+      <c r="L21" s="38">
+        <v>67</v>
+      </c>
+      <c r="M21" s="38">
+        <v>17</v>
+      </c>
+      <c r="N21" s="38">
+        <v>7</v>
+      </c>
+      <c r="O21" s="38">
+        <v>4</v>
+      </c>
+      <c r="P21" s="17">
+        <v>203</v>
+      </c>
+      <c r="Q21" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="R21" s="25">
+        <f>SUM(I21,P21)</f>
+        <v>416</v>
+      </c>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+    </row>
+    <row r="22" spans="1:20" ht="16.149999999999999" thickBot="1">
+      <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="41">
+        <v>17.5</v>
+      </c>
+      <c r="D22" s="41">
+        <v>20</v>
+      </c>
+      <c r="E22" s="41">
+        <v>25</v>
+      </c>
+      <c r="F22" s="41">
+        <v>25</v>
+      </c>
+      <c r="G22" s="41">
+        <v>30</v>
+      </c>
+      <c r="H22" s="41">
+        <v>27.5</v>
+      </c>
+      <c r="I22" s="37"/>
+      <c r="J22" s="41">
+        <v>33.125</v>
+      </c>
+      <c r="K22" s="41">
+        <v>37.5</v>
+      </c>
+      <c r="L22" s="41">
+        <v>28.75</v>
+      </c>
+      <c r="M22" s="41">
+        <v>31.25</v>
+      </c>
+      <c r="N22" s="41">
+        <v>45</v>
+      </c>
+      <c r="O22" s="41">
+        <v>45.625</v>
+      </c>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+    </row>
+    <row r="23" spans="1:20" ht="16.149999999999999" thickBot="1">
+      <c r="B23" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="41">
+        <v>17.1875</v>
+      </c>
+      <c r="D23" s="41">
+        <v>18.75</v>
+      </c>
+      <c r="E23" s="41">
+        <v>16.25</v>
+      </c>
+      <c r="F23" s="41">
+        <v>15.625</v>
+      </c>
+      <c r="G23" s="41">
+        <v>17.5</v>
+      </c>
+      <c r="H23" s="41">
+        <v>12.5</v>
+      </c>
+      <c r="I23" s="37"/>
+      <c r="J23" s="41">
+        <v>28.4375</v>
+      </c>
+      <c r="K23" s="41">
+        <v>16.25</v>
+      </c>
+      <c r="L23" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="M23" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="N23" s="41">
+        <v>11.875</v>
+      </c>
+      <c r="O23" s="41">
+        <v>14.375</v>
+      </c>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+    </row>
+    <row r="24" spans="1:20" ht="15.75">
+      <c r="A24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="37">
+        <v>327</v>
+      </c>
+      <c r="D24" s="38">
+        <v>274</v>
+      </c>
+      <c r="E24" s="38">
+        <v>290</v>
+      </c>
+      <c r="F24" s="38">
+        <v>83</v>
+      </c>
+      <c r="G24" s="38">
+        <v>111</v>
+      </c>
+      <c r="H24" s="38">
+        <v>29</v>
+      </c>
+      <c r="I24" s="37">
+        <v>1114</v>
+      </c>
+      <c r="J24" s="38">
+        <v>303</v>
+      </c>
+      <c r="K24" s="38">
+        <v>306</v>
+      </c>
+      <c r="L24" s="38">
+        <v>301</v>
+      </c>
+      <c r="M24" s="38">
+        <v>126</v>
+      </c>
+      <c r="N24" s="38">
+        <v>146</v>
+      </c>
+      <c r="O24" s="38">
+        <v>53</v>
+      </c>
+      <c r="P24">
+        <v>1235</v>
+      </c>
+      <c r="Q24" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="R24" s="25">
+        <f>SUM(I24,P24)</f>
+        <v>2349</v>
+      </c>
+      <c r="S24" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="T24" s="25">
+        <f>SUM(R21, R24)</f>
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="16.149999999999999" thickBot="1">
+      <c r="C25" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="O25" s="40"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+    </row>
+    <row r="26" spans="1:20" ht="16.149999999999999" thickBot="1">
+      <c r="B26" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="O26" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+    </row>
+    <row r="27" spans="1:20" ht="16.149999999999999" thickBot="1">
+      <c r="B27" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="J27" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="K27" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="L27" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="M27" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="N27" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="O27" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+    </row>
+    <row r="28" spans="1:20" ht="16.149999999999999" thickBot="1">
+      <c r="B28" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="44">
+        <v>57</v>
+      </c>
+      <c r="D28" s="38">
+        <v>96</v>
+      </c>
+      <c r="E28" s="38">
+        <v>77</v>
+      </c>
+      <c r="F28" s="38">
+        <v>39</v>
+      </c>
+      <c r="G28" s="38">
+        <v>12</v>
+      </c>
+      <c r="H28" s="38">
+        <v>7</v>
+      </c>
+      <c r="I28" s="38">
+        <v>288</v>
+      </c>
+      <c r="J28" s="44">
+        <v>41</v>
+      </c>
+      <c r="K28" s="38">
+        <v>80</v>
+      </c>
+      <c r="L28" s="38">
+        <v>49</v>
+      </c>
+      <c r="M28" s="38">
+        <v>34</v>
+      </c>
+      <c r="N28" s="38">
+        <v>14</v>
+      </c>
+      <c r="O28" s="38">
+        <v>12</v>
+      </c>
+      <c r="P28" s="17">
+        <v>230</v>
+      </c>
+      <c r="Q28" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="R28" s="25">
+        <f>SUM(I28,P28)</f>
+        <v>518</v>
+      </c>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+    </row>
+    <row r="29" spans="1:20" ht="16.149999999999999" thickBot="1">
+      <c r="A29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="41">
+        <v>14.375</v>
+      </c>
+      <c r="D29" s="41">
+        <v>20</v>
+      </c>
+      <c r="E29" s="41">
+        <v>18.75</v>
+      </c>
+      <c r="F29" s="41">
+        <v>25.625</v>
+      </c>
+      <c r="G29" s="41">
+        <v>26.875</v>
+      </c>
+      <c r="H29" s="41">
+        <v>27.5</v>
+      </c>
+      <c r="I29" s="37"/>
+      <c r="J29" s="41">
+        <v>32.5</v>
+      </c>
+      <c r="K29" s="41">
+        <v>37.5</v>
+      </c>
+      <c r="L29" s="41">
+        <v>40.625</v>
+      </c>
+      <c r="M29" s="41">
+        <v>46.875</v>
+      </c>
+      <c r="N29" s="41">
+        <v>33.75</v>
+      </c>
+      <c r="O29" s="41">
+        <v>50.625</v>
+      </c>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+    </row>
+    <row r="30" spans="1:20" ht="16.149999999999999" thickBot="1">
+      <c r="B30" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="41">
+        <v>16.875</v>
+      </c>
+      <c r="D30" s="41">
+        <v>12.5</v>
+      </c>
+      <c r="E30" s="41">
+        <v>13.75</v>
+      </c>
+      <c r="F30" s="41">
+        <v>25.9375</v>
+      </c>
+      <c r="G30" s="41">
+        <v>19.6875</v>
+      </c>
+      <c r="H30" s="41">
+        <v>22.8125</v>
+      </c>
+      <c r="I30" s="37"/>
+      <c r="J30" s="41">
+        <v>21.25</v>
+      </c>
+      <c r="K30" s="41">
+        <v>21.25</v>
+      </c>
+      <c r="L30" s="41">
+        <v>17.5</v>
+      </c>
+      <c r="M30" s="41">
+        <v>23.125</v>
+      </c>
+      <c r="N30" s="41">
+        <v>15</v>
+      </c>
+      <c r="O30" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+    </row>
+    <row r="31" spans="1:20" ht="15.75">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31">
+        <v>29</v>
+      </c>
+      <c r="D31" s="17">
+        <v>304</v>
+      </c>
+      <c r="E31" s="17">
+        <v>146</v>
+      </c>
+      <c r="F31" s="17">
+        <v>44</v>
+      </c>
+      <c r="G31" s="17">
+        <v>20</v>
+      </c>
+      <c r="H31" s="17">
+        <v>6</v>
+      </c>
+      <c r="I31">
+        <v>549</v>
+      </c>
+      <c r="J31">
+        <v>30</v>
+      </c>
+      <c r="K31" s="17">
+        <v>278</v>
+      </c>
+      <c r="L31" s="17">
+        <v>194</v>
+      </c>
+      <c r="M31" s="17">
+        <v>62</v>
+      </c>
+      <c r="N31" s="17">
+        <v>25</v>
+      </c>
+      <c r="O31" s="17">
+        <v>10</v>
+      </c>
+      <c r="P31">
+        <v>599</v>
+      </c>
+      <c r="Q31" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="R31" s="25">
+        <f>SUM(I31,P31)</f>
+        <v>1148</v>
+      </c>
+      <c r="S31" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="T31" s="25">
+        <f>SUM(R28, R31)</f>
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="15.75">
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+    </row>
+    <row r="33" spans="2:20" ht="15.75">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="T33" s="36">
+        <f>SUM(T8,T16,T24,T31)</f>
+        <v>9496</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J123"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B60" sqref="B60:H63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -8510,7 +9944,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15">
+    <row r="65" spans="1:7" ht="15.75">
       <c r="A65" s="5" t="s">
         <v>57</v>
       </c>
@@ -8628,7 +10062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15">
+    <row r="74" spans="1:7" ht="15.75">
       <c r="A74" s="5" t="s">
         <v>53</v>
       </c>
@@ -8890,7 +10324,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15">
+    <row r="86" spans="1:10" ht="15.75">
       <c r="A86" s="5" t="s">
         <v>53</v>
       </c>
@@ -9550,20 +10984,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A4:T35"/>
   <sheetViews>
     <sheetView topLeftCell="J1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4:T36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="25"/>
+    <col min="1" max="16384" width="10.796875" style="25"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:20" ht="16" thickBot="1">
+    <row r="4" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="B4" s="28" t="s">
         <v>56</v>
       </c>
@@ -9606,7 +11040,7 @@
       </c>
       <c r="P4" s="28"/>
     </row>
-    <row r="5" spans="1:20" ht="16" thickBot="1">
+    <row r="5" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="B5" s="29" t="s">
         <v>101</v>
       </c>
@@ -9649,7 +11083,7 @@
       </c>
       <c r="P5" s="35"/>
     </row>
-    <row r="6" spans="1:20" ht="16" thickBot="1">
+    <row r="6" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="B6" s="29" t="s">
         <v>1</v>
       </c>
@@ -9696,7 +11130,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16" thickBot="1">
+    <row r="7" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="B7" s="29" t="s">
         <v>91</v>
       </c>
@@ -9750,7 +11184,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16" thickBot="1">
+    <row r="8" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="A8" s="25" t="s">
         <v>89</v>
       </c>
@@ -9800,7 +11234,7 @@
         <v>26.875</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="16" thickBot="1">
+    <row r="9" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="B9" s="29" t="s">
         <v>92</v>
       </c>
@@ -9911,7 +11345,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16" thickBot="1">
+    <row r="12" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="C12" s="28" t="s">
         <v>25</v>
       </c>
@@ -9947,7 +11381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="16" thickBot="1">
+    <row r="13" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="B13" s="29" t="s">
         <v>101</v>
       </c>
@@ -9989,7 +11423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="16" thickBot="1">
+    <row r="14" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="B14" s="29" t="s">
         <v>1</v>
       </c>
@@ -10036,7 +11470,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="16" thickBot="1">
+    <row r="15" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="B15" s="29" t="s">
         <v>91</v>
       </c>
@@ -10090,7 +11524,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="16" thickBot="1">
+    <row r="16" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="A16" s="25" t="s">
         <v>89</v>
       </c>
@@ -10140,7 +11574,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="16" thickBot="1">
+    <row r="17" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="B17" s="29" t="s">
         <v>92</v>
       </c>
@@ -10251,7 +11685,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="16" thickBot="1">
+    <row r="20" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="C20" s="28" t="s">
         <v>11</v>
       </c>
@@ -10290,7 +11724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="16" thickBot="1">
+    <row r="21" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="B21" s="29" t="s">
         <v>101</v>
       </c>
@@ -10332,7 +11766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="16" thickBot="1">
+    <row r="22" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="B22" s="29" t="s">
         <v>1</v>
       </c>
@@ -10379,7 +11813,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="16" thickBot="1">
+    <row r="23" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="B23" s="29" t="s">
         <v>91</v>
       </c>
@@ -10433,7 +11867,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="16" thickBot="1">
+    <row r="24" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="A24" s="25" t="s">
         <v>89</v>
       </c>
@@ -10483,7 +11917,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="16" thickBot="1">
+    <row r="25" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="B25" s="29" t="s">
         <v>92</v>
       </c>
@@ -10594,7 +12028,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="16" thickBot="1">
+    <row r="27" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="C27" s="28" t="s">
         <v>12</v>
       </c>
@@ -10631,7 +12065,7 @@
       </c>
       <c r="O27" s="32"/>
     </row>
-    <row r="28" spans="1:20" ht="16" thickBot="1">
+    <row r="28" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="B28" s="29" t="s">
         <v>101</v>
       </c>
@@ -10673,7 +12107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="16" thickBot="1">
+    <row r="29" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="B29" s="29" t="s">
         <v>1</v>
       </c>
@@ -10720,7 +12154,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="16" thickBot="1">
+    <row r="30" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="B30" s="29" t="s">
         <v>91</v>
       </c>
@@ -10774,7 +12208,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="16" thickBot="1">
+    <row r="31" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="A31" s="25" t="s">
         <v>89</v>
       </c>
@@ -10824,7 +12258,7 @@
         <v>28.75</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="16" thickBot="1">
+    <row r="32" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="B32" s="29" t="s">
         <v>92</v>
       </c>

--- a/manuscript/Table template_Final_MLKTaddedtotals.xlsx
+++ b/manuscript/Table template_Final_MLKTaddedtotals.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20356"/>
-  <workbookPr checkCompatibility="1" autoCompressPictures="0" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkeomec\Documents\GitHub\eHearing\manuscript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael Lee\Documents\GitHub\eHearing\manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C16A399-337B-4691-90E7-B8518B36572D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25598" windowHeight="15518" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15516" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="overall" sheetId="4" r:id="rId1"/>
-    <sheet name="Q41 subjects" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet1 (2)" sheetId="5" r:id="rId4"/>
+    <sheet name="Q41 subjects" sheetId="6" r:id="rId1"/>
+    <sheet name="Cleaned subjects" sheetId="4" r:id="rId2"/>
+    <sheet name="old1" sheetId="1" r:id="rId3"/>
+    <sheet name="old2" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -360,8 +359,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -693,7 +692,7 @@
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 2" xfId="9"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -764,7 +763,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$60</c:f>
+              <c:f>'old1'!$A$60</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -785,7 +784,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$59:$G$59</c:f>
+              <c:f>'old1'!$B$59:$G$59</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -811,7 +810,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$60:$G$60</c:f>
+              <c:f>'old1'!$B$60:$G$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -847,7 +846,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$61</c:f>
+              <c:f>'old1'!$A$61</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -868,7 +867,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$59:$G$59</c:f>
+              <c:f>'old1'!$B$59:$G$59</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -894,7 +893,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$61:$G$61</c:f>
+              <c:f>'old1'!$B$61:$G$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -930,7 +929,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$62</c:f>
+              <c:f>'old1'!$A$62</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -951,7 +950,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$59:$G$59</c:f>
+              <c:f>'old1'!$B$59:$G$59</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -977,7 +976,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$62:$G$62</c:f>
+              <c:f>'old1'!$B$62:$G$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1013,7 +1012,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$63</c:f>
+              <c:f>'old1'!$A$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1034,7 +1033,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$59:$G$59</c:f>
+              <c:f>'old1'!$B$59:$G$59</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1060,7 +1059,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$63:$G$63</c:f>
+              <c:f>'old1'!$B$63:$G$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1332,7 +1331,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$74</c:f>
+              <c:f>'old1'!$B$74</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1353,7 +1352,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$75:$A$83</c:f>
+              <c:f>'old1'!$A$75:$A$83</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1388,7 +1387,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$75:$B$83</c:f>
+              <c:f>'old1'!$B$75:$B$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1433,7 +1432,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$74</c:f>
+              <c:f>'old1'!$C$74</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1454,7 +1453,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$75:$A$83</c:f>
+              <c:f>'old1'!$A$75:$A$83</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1489,7 +1488,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$75:$C$83</c:f>
+              <c:f>'old1'!$C$75:$C$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1534,7 +1533,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$74</c:f>
+              <c:f>'old1'!$D$74</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1555,7 +1554,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$75:$A$83</c:f>
+              <c:f>'old1'!$A$75:$A$83</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1590,7 +1589,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$75:$D$83</c:f>
+              <c:f>'old1'!$D$75:$D$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1635,7 +1634,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$74</c:f>
+              <c:f>'old1'!$E$74</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1656,7 +1655,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$75:$A$83</c:f>
+              <c:f>'old1'!$A$75:$A$83</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1691,7 +1690,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$75:$E$83</c:f>
+              <c:f>'old1'!$E$75:$E$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1736,7 +1735,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$74</c:f>
+              <c:f>'old1'!$F$74</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1757,7 +1756,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$75:$A$83</c:f>
+              <c:f>'old1'!$A$75:$A$83</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1792,7 +1791,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$75:$F$83</c:f>
+              <c:f>'old1'!$F$75:$F$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1837,7 +1836,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$74</c:f>
+              <c:f>'old1'!$G$74</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1858,7 +1857,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$75:$A$83</c:f>
+              <c:f>'old1'!$A$75:$A$83</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1893,7 +1892,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$75:$G$83</c:f>
+              <c:f>'old1'!$G$75:$G$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2163,6 +2162,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2204,7 +2204,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$60</c:f>
+              <c:f>'old1'!$A$60</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2227,7 +2227,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$59:$G$59</c:f>
+              <c:f>'old1'!$B$59:$G$59</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2253,7 +2253,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$60:$G$60</c:f>
+              <c:f>'old1'!$B$60:$G$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2289,7 +2289,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$61</c:f>
+              <c:f>'old1'!$A$61</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2310,7 +2310,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$59:$G$59</c:f>
+              <c:f>'old1'!$B$59:$G$59</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2336,7 +2336,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$61:$G$61</c:f>
+              <c:f>'old1'!$B$61:$G$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2372,7 +2372,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$62</c:f>
+              <c:f>'old1'!$A$62</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2393,7 +2393,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$59:$G$59</c:f>
+              <c:f>'old1'!$B$59:$G$59</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2419,7 +2419,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$62:$G$62</c:f>
+              <c:f>'old1'!$B$62:$G$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2455,7 +2455,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$63</c:f>
+              <c:f>'old1'!$A$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2476,7 +2476,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$59:$G$59</c:f>
+              <c:f>'old1'!$B$59:$G$59</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2502,7 +2502,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$63:$G$63</c:f>
+              <c:f>'old1'!$B$63:$G$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2682,6 +2682,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2774,7 +2775,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$102</c:f>
+              <c:f>'old1'!$B$102</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2795,7 +2796,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$103:$A$107</c:f>
+              <c:f>'old1'!$A$103:$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2818,7 +2819,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$103:$B$107</c:f>
+              <c:f>'old1'!$B$103:$B$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2851,7 +2852,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$102</c:f>
+              <c:f>'old1'!$C$102</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2872,7 +2873,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$103:$A$107</c:f>
+              <c:f>'old1'!$A$103:$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2895,7 +2896,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$103:$C$107</c:f>
+              <c:f>'old1'!$C$103:$C$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5401,7 +5402,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5855,1851 +5856,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AO90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AO33"/>
   <sheetViews>
-    <sheetView topLeftCell="G24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:P30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="2" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="18" width="14.46484375" customWidth="1"/>
-    <col min="19" max="19" width="26.46484375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:18">
-      <c r="C2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18">
-      <c r="E3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18">
-      <c r="E4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="R4" s="9"/>
-    </row>
-    <row r="5" spans="2:18">
-      <c r="B5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-    </row>
-    <row r="6" spans="2:18">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-    </row>
-    <row r="7" spans="2:18">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-    </row>
-    <row r="8" spans="2:18">
-      <c r="B8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-    </row>
-    <row r="9" spans="2:18">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-    </row>
-    <row r="10" spans="2:18">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-    </row>
-    <row r="11" spans="2:18">
-      <c r="B11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-    </row>
-    <row r="12" spans="2:18">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-    </row>
-    <row r="13" spans="2:18">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-    </row>
-    <row r="14" spans="2:18">
-      <c r="B14" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-    </row>
-    <row r="15" spans="2:18">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-    </row>
-    <row r="16" spans="2:18">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-    </row>
-    <row r="20" spans="1:41">
-      <c r="A20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:41">
-      <c r="A21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:41" ht="16.149999999999999" thickBot="1">
-      <c r="B24" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="K24" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="M24" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="N24" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="O24" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="AO24" s="14"/>
-    </row>
-    <row r="25" spans="1:41" ht="16.149999999999999" thickBot="1">
-      <c r="B25" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="N25" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="O25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="AO25" s="16"/>
-    </row>
-    <row r="26" spans="1:41" ht="16.149999999999999" thickBot="1">
-      <c r="B26" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="O26" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="P26" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="AO26" s="16"/>
-    </row>
-    <row r="27" spans="1:41" ht="16.149999999999999" thickBot="1">
-      <c r="B27" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="19">
-        <v>51</v>
-      </c>
-      <c r="D27" s="17">
-        <v>58</v>
-      </c>
-      <c r="E27" s="17">
-        <v>53</v>
-      </c>
-      <c r="F27" s="17">
-        <v>33</v>
-      </c>
-      <c r="G27" s="17">
-        <v>23</v>
-      </c>
-      <c r="H27" s="17">
-        <v>14</v>
-      </c>
-      <c r="I27" s="17">
-        <v>232</v>
-      </c>
-      <c r="J27" s="19">
-        <v>38</v>
-      </c>
-      <c r="K27" s="17">
-        <v>59</v>
-      </c>
-      <c r="L27" s="17">
-        <v>51</v>
-      </c>
-      <c r="M27" s="17">
-        <v>33</v>
-      </c>
-      <c r="N27" s="17">
-        <v>26</v>
-      </c>
-      <c r="O27" s="17">
-        <v>16</v>
-      </c>
-      <c r="P27" s="16">
-        <v>223</v>
-      </c>
-      <c r="Q27" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="R27" s="25">
-        <f>SUM(I27,P27)</f>
-        <v>455</v>
-      </c>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="AO27" s="16"/>
-    </row>
-    <row r="28" spans="1:41" ht="16.149999999999999" thickBot="1">
-      <c r="A28" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="14">
-        <v>13.125</v>
-      </c>
-      <c r="D28" s="14">
-        <v>18.75</v>
-      </c>
-      <c r="E28" s="14">
-        <v>22.5</v>
-      </c>
-      <c r="F28" s="14">
-        <v>26.25</v>
-      </c>
-      <c r="G28" s="14">
-        <v>39.375</v>
-      </c>
-      <c r="H28" s="14">
-        <v>33.125</v>
-      </c>
-      <c r="I28" s="14">
-        <v>21.25</v>
-      </c>
-      <c r="J28" s="14">
-        <v>19.375</v>
-      </c>
-      <c r="K28" s="14">
-        <v>23.75</v>
-      </c>
-      <c r="L28" s="14">
-        <v>26.875</v>
-      </c>
-      <c r="M28" s="14">
-        <v>27.5</v>
-      </c>
-      <c r="N28" s="14">
-        <v>30</v>
-      </c>
-      <c r="O28" s="14">
-        <v>38.125</v>
-      </c>
-      <c r="P28" s="14">
-        <v>26.875</v>
-      </c>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="AO28" s="16"/>
-    </row>
-    <row r="29" spans="1:41" ht="16.149999999999999" thickBot="1">
-      <c r="B29" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="14">
-        <v>10.9375</v>
-      </c>
-      <c r="D29" s="14">
-        <v>13.75</v>
-      </c>
-      <c r="E29" s="14">
-        <v>16.875</v>
-      </c>
-      <c r="F29" s="14">
-        <v>17.5</v>
-      </c>
-      <c r="G29" s="14">
-        <v>15.3125</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="I29" s="14">
-        <v>17.5</v>
-      </c>
-      <c r="J29" s="14">
-        <v>15.625</v>
-      </c>
-      <c r="K29" s="14">
-        <v>21.875</v>
-      </c>
-      <c r="L29" s="14">
-        <v>17.1875</v>
-      </c>
-      <c r="M29" s="14">
-        <v>16.25</v>
-      </c>
-      <c r="N29" s="14">
-        <v>13.125</v>
-      </c>
-      <c r="O29" s="14">
-        <v>15.625</v>
-      </c>
-      <c r="P29" s="14">
-        <v>18.75</v>
-      </c>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="AO29" s="16"/>
-    </row>
-    <row r="30" spans="1:41" ht="15.75">
-      <c r="A30" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="Q30" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="R30" s="25">
-        <f>SUM(I30,P30)</f>
-        <v>0</v>
-      </c>
-      <c r="S30" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="T30" s="25">
-        <f>SUM(R27, R30)</f>
-        <v>455</v>
-      </c>
-      <c r="AO30" s="22"/>
-    </row>
-    <row r="31" spans="1:41" ht="15.75">
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-    </row>
-    <row r="32" spans="1:41" ht="16.149999999999999" thickBot="1">
-      <c r="C32" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="K32" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L32" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M32" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N32" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-    </row>
-    <row r="33" spans="1:20" ht="16.149999999999999" thickBot="1">
-      <c r="B33" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="N33" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="O33" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-    </row>
-    <row r="34" spans="1:20" ht="16.149999999999999" thickBot="1">
-      <c r="B34" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="L34" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="N34" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="O34" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="P34" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="25"/>
-    </row>
-    <row r="35" spans="1:20" ht="16.149999999999999" thickBot="1">
-      <c r="B35" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="17">
-        <v>61</v>
-      </c>
-      <c r="D35" s="17">
-        <v>85</v>
-      </c>
-      <c r="E35" s="17">
-        <v>63</v>
-      </c>
-      <c r="F35" s="17">
-        <v>34</v>
-      </c>
-      <c r="G35" s="17">
-        <v>20</v>
-      </c>
-      <c r="H35" s="17">
-        <v>5</v>
-      </c>
-      <c r="I35" s="17">
-        <v>268</v>
-      </c>
-      <c r="J35" s="17">
-        <v>56</v>
-      </c>
-      <c r="K35" s="17">
-        <v>72</v>
-      </c>
-      <c r="L35" s="17">
-        <v>57</v>
-      </c>
-      <c r="M35" s="17">
-        <v>41</v>
-      </c>
-      <c r="N35" s="17">
-        <v>25</v>
-      </c>
-      <c r="O35" s="17">
-        <v>14</v>
-      </c>
-      <c r="P35">
-        <v>265</v>
-      </c>
-      <c r="Q35" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="R35" s="25">
-        <f>SUM(I35,P35)</f>
-        <v>533</v>
-      </c>
-      <c r="S35" s="25"/>
-      <c r="T35" s="25"/>
-    </row>
-    <row r="36" spans="1:20" ht="16.149999999999999" thickBot="1">
-      <c r="A36" t="s">
-        <v>89</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="14">
-        <v>14.375</v>
-      </c>
-      <c r="D36" s="14">
-        <v>16.25</v>
-      </c>
-      <c r="E36" s="14">
-        <v>25</v>
-      </c>
-      <c r="F36" s="14">
-        <v>28.75</v>
-      </c>
-      <c r="G36" s="14">
-        <v>29.375</v>
-      </c>
-      <c r="H36" s="14">
-        <v>45</v>
-      </c>
-      <c r="I36" s="14">
-        <v>20</v>
-      </c>
-      <c r="J36" s="14">
-        <v>20</v>
-      </c>
-      <c r="K36" s="14">
-        <v>23.125</v>
-      </c>
-      <c r="L36" s="14">
-        <v>26.25</v>
-      </c>
-      <c r="M36" s="14">
-        <v>33.75</v>
-      </c>
-      <c r="N36" s="14">
-        <v>40.625</v>
-      </c>
-      <c r="O36" s="14">
-        <v>43.75</v>
-      </c>
-      <c r="P36" s="14">
-        <v>27.5</v>
-      </c>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="25"/>
-    </row>
-    <row r="37" spans="1:20" ht="16.149999999999999" thickBot="1">
-      <c r="B37" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="14">
-        <v>12.5</v>
-      </c>
-      <c r="D37" s="14">
-        <v>14.375</v>
-      </c>
-      <c r="E37" s="14">
-        <v>15.625</v>
-      </c>
-      <c r="F37" s="14">
-        <v>15</v>
-      </c>
-      <c r="G37" s="14">
-        <v>15.625</v>
-      </c>
-      <c r="H37" s="14">
-        <v>10</v>
-      </c>
-      <c r="I37" s="14">
-        <v>17.5</v>
-      </c>
-      <c r="J37" s="14">
-        <v>15.625</v>
-      </c>
-      <c r="K37" s="14">
-        <v>18.4375</v>
-      </c>
-      <c r="L37" s="14">
-        <v>16.25</v>
-      </c>
-      <c r="M37" s="14">
-        <v>17.5</v>
-      </c>
-      <c r="N37" s="14">
-        <v>20.3125</v>
-      </c>
-      <c r="O37" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="P37" s="14">
-        <v>20.9375</v>
-      </c>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-    </row>
-    <row r="38" spans="1:20" ht="15.75">
-      <c r="A38" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="Q38" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="R38" s="25">
-        <f>SUM(I38,P38)</f>
-        <v>0</v>
-      </c>
-      <c r="S38" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="T38" s="25">
-        <f>SUM(R35, R38)</f>
-        <v>533</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="15.75">
-      <c r="Q39" s="25"/>
-      <c r="R39" s="25"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="25"/>
-    </row>
-    <row r="40" spans="1:20" ht="16.149999999999999" thickBot="1">
-      <c r="C40" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L40" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="M40" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="N40" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="O40" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="25"/>
-      <c r="S40" s="25"/>
-      <c r="T40" s="25"/>
-    </row>
-    <row r="41" spans="1:20" ht="16.149999999999999" thickBot="1">
-      <c r="B41" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L41" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="N41" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="O41" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q41" s="25"/>
-      <c r="R41" s="25"/>
-      <c r="S41" s="25"/>
-      <c r="T41" s="25"/>
-    </row>
-    <row r="42" spans="1:20" ht="16.149999999999999" thickBot="1">
-      <c r="B42" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="L42" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M42" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="N42" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="O42" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="P42" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q42" s="25"/>
-      <c r="R42" s="25"/>
-      <c r="S42" s="25"/>
-      <c r="T42" s="25"/>
-    </row>
-    <row r="43" spans="1:20" ht="16.149999999999999" thickBot="1">
-      <c r="B43" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="19">
-        <v>79</v>
-      </c>
-      <c r="D43" s="17">
-        <v>66</v>
-      </c>
-      <c r="E43" s="17">
-        <v>41</v>
-      </c>
-      <c r="F43" s="17">
-        <v>20</v>
-      </c>
-      <c r="G43" s="17">
-        <v>5</v>
-      </c>
-      <c r="H43" s="17">
-        <v>3</v>
-      </c>
-      <c r="I43" s="17">
-        <v>214</v>
-      </c>
-      <c r="J43" s="19">
-        <v>57</v>
-      </c>
-      <c r="K43" s="17">
-        <v>51</v>
-      </c>
-      <c r="L43" s="17">
-        <v>67</v>
-      </c>
-      <c r="M43" s="17">
-        <v>18</v>
-      </c>
-      <c r="N43" s="17">
-        <v>7</v>
-      </c>
-      <c r="O43" s="17">
-        <v>5</v>
-      </c>
-      <c r="P43">
-        <v>205</v>
-      </c>
-      <c r="Q43" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="R43" s="25">
-        <f>SUM(I43,P43)</f>
-        <v>419</v>
-      </c>
-      <c r="S43" s="25"/>
-      <c r="T43" s="25"/>
-    </row>
-    <row r="44" spans="1:20" ht="16.149999999999999" thickBot="1">
-      <c r="A44" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="14">
-        <v>17.5</v>
-      </c>
-      <c r="D44" s="14">
-        <v>24.375</v>
-      </c>
-      <c r="E44" s="14">
-        <v>30</v>
-      </c>
-      <c r="F44" s="14">
-        <v>33.125</v>
-      </c>
-      <c r="G44" s="14">
-        <v>28.75</v>
-      </c>
-      <c r="H44" s="14">
-        <v>45</v>
-      </c>
-      <c r="I44" s="14">
-        <v>23.75</v>
-      </c>
-      <c r="J44" s="14">
-        <v>20</v>
-      </c>
-      <c r="K44" s="14">
-        <v>25</v>
-      </c>
-      <c r="L44" s="14">
-        <v>27.5</v>
-      </c>
-      <c r="M44" s="14">
-        <v>36.25</v>
-      </c>
-      <c r="N44" s="14">
-        <v>31.25</v>
-      </c>
-      <c r="O44" s="14">
-        <v>51.25</v>
-      </c>
-      <c r="P44" s="14">
-        <v>26.25</v>
-      </c>
-      <c r="Q44" s="25"/>
-      <c r="R44" s="25"/>
-      <c r="S44" s="25"/>
-      <c r="T44" s="25"/>
-    </row>
-    <row r="45" spans="1:20" ht="16.149999999999999" thickBot="1">
-      <c r="B45" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" s="14">
-        <v>17.1875</v>
-      </c>
-      <c r="D45" s="14">
-        <v>16.25</v>
-      </c>
-      <c r="E45" s="14">
-        <v>17.5</v>
-      </c>
-      <c r="F45" s="14">
-        <v>28.4375</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H45" s="14">
-        <v>11.875</v>
-      </c>
-      <c r="I45" s="14">
-        <v>20</v>
-      </c>
-      <c r="J45" s="14">
-        <v>18.75</v>
-      </c>
-      <c r="K45" s="14">
-        <v>15.625</v>
-      </c>
-      <c r="L45" s="14">
-        <v>12.5</v>
-      </c>
-      <c r="M45" s="14">
-        <v>17.5</v>
-      </c>
-      <c r="N45" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="O45" s="14">
-        <v>13.75</v>
-      </c>
-      <c r="P45" s="14">
-        <v>16.25</v>
-      </c>
-      <c r="Q45" s="25"/>
-      <c r="R45" s="25"/>
-      <c r="S45" s="25"/>
-      <c r="T45" s="25"/>
-    </row>
-    <row r="46" spans="1:20" ht="15.75">
-      <c r="A46" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="Q46" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="R46" s="25">
-        <f>SUM(I46,P46)</f>
-        <v>0</v>
-      </c>
-      <c r="S46" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="T46" s="25">
-        <f>SUM(R43, R46)</f>
-        <v>419</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="16.149999999999999" thickBot="1">
-      <c r="C47" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K47" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="L47" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="M47" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="N47" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="O47" s="13"/>
-      <c r="Q47" s="25"/>
-      <c r="R47" s="25"/>
-      <c r="S47" s="25"/>
-      <c r="T47" s="25"/>
-    </row>
-    <row r="48" spans="1:20" ht="16.149999999999999" thickBot="1">
-      <c r="B48" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="N48" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="O48" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q48" s="25"/>
-      <c r="R48" s="25"/>
-      <c r="S48" s="25"/>
-      <c r="T48" s="25"/>
-    </row>
-    <row r="49" spans="1:20" ht="16.149999999999999" thickBot="1">
-      <c r="B49" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="K49" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="L49" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M49" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="N49" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="O49" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="P49" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q49" s="25"/>
-      <c r="R49" s="25"/>
-      <c r="S49" s="25"/>
-      <c r="T49" s="25"/>
-    </row>
-    <row r="50" spans="1:20" ht="16.149999999999999" thickBot="1">
-      <c r="B50" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C50" s="19">
-        <v>57</v>
-      </c>
-      <c r="D50" s="17">
-        <v>96</v>
-      </c>
-      <c r="E50" s="17">
-        <v>77</v>
-      </c>
-      <c r="F50" s="17">
-        <v>40</v>
-      </c>
-      <c r="G50" s="17">
-        <v>12</v>
-      </c>
-      <c r="H50" s="17">
-        <v>8</v>
-      </c>
-      <c r="I50" s="17">
-        <v>290</v>
-      </c>
-      <c r="J50" s="19">
-        <v>41</v>
-      </c>
-      <c r="K50" s="17">
-        <v>80</v>
-      </c>
-      <c r="L50" s="17">
-        <v>49</v>
-      </c>
-      <c r="M50" s="17">
-        <v>34</v>
-      </c>
-      <c r="N50" s="17">
-        <v>14</v>
-      </c>
-      <c r="O50" s="17">
-        <v>12</v>
-      </c>
-      <c r="P50">
-        <v>230</v>
-      </c>
-      <c r="Q50" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="R50" s="25">
-        <f>SUM(I50,P50)</f>
-        <v>520</v>
-      </c>
-      <c r="S50" s="25"/>
-      <c r="T50" s="25"/>
-    </row>
-    <row r="51" spans="1:20" ht="16.149999999999999" thickBot="1">
-      <c r="A51" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C51" s="14">
-        <v>14.375</v>
-      </c>
-      <c r="D51" s="14">
-        <v>18.75</v>
-      </c>
-      <c r="E51" s="14">
-        <v>26.875</v>
-      </c>
-      <c r="F51" s="14">
-        <v>33.75</v>
-      </c>
-      <c r="G51" s="14">
-        <v>40.625</v>
-      </c>
-      <c r="H51" s="14">
-        <v>37.5</v>
-      </c>
-      <c r="I51" s="14">
-        <v>22.5</v>
-      </c>
-      <c r="J51" s="14">
-        <v>20</v>
-      </c>
-      <c r="K51" s="14">
-        <v>25.625</v>
-      </c>
-      <c r="L51" s="14">
-        <v>27.5</v>
-      </c>
-      <c r="M51" s="14">
-        <v>37.5</v>
-      </c>
-      <c r="N51" s="14">
-        <v>46.875</v>
-      </c>
-      <c r="O51" s="14">
-        <v>50.625</v>
-      </c>
-      <c r="P51" s="14">
-        <v>28.75</v>
-      </c>
-      <c r="Q51" s="25"/>
-      <c r="R51" s="25"/>
-      <c r="S51" s="25"/>
-      <c r="T51" s="25"/>
-    </row>
-    <row r="52" spans="1:20" ht="16.149999999999999" thickBot="1">
-      <c r="B52" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C52" s="14">
-        <v>16.875</v>
-      </c>
-      <c r="D52" s="14">
-        <v>13.75</v>
-      </c>
-      <c r="E52" s="14">
-        <v>19.6875</v>
-      </c>
-      <c r="F52" s="14">
-        <v>21.875</v>
-      </c>
-      <c r="G52" s="14">
-        <v>17.5</v>
-      </c>
-      <c r="H52" s="14">
-        <v>20.625</v>
-      </c>
-      <c r="I52" s="14">
-        <v>21.5625</v>
-      </c>
-      <c r="J52" s="14">
-        <v>12.5</v>
-      </c>
-      <c r="K52" s="14">
-        <v>25.9375</v>
-      </c>
-      <c r="L52" s="14">
-        <v>22.8125</v>
-      </c>
-      <c r="M52" s="14">
-        <v>21.25</v>
-      </c>
-      <c r="N52" s="14">
-        <v>23.125</v>
-      </c>
-      <c r="O52" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="P52" s="14">
-        <v>25.3125</v>
-      </c>
-      <c r="Q52" s="25"/>
-      <c r="R52" s="25"/>
-      <c r="S52" s="25"/>
-      <c r="T52" s="25"/>
-    </row>
-    <row r="53" spans="1:20" ht="15.75">
-      <c r="A53" t="s">
-        <v>90</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="Q53" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="R53" s="25">
-        <f>SUM(I53,P53)</f>
-        <v>0</v>
-      </c>
-      <c r="S53" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="T53" s="25">
-        <f>SUM(R50, R53)</f>
-        <v>520</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" ht="15.75">
-      <c r="Q54" s="25"/>
-      <c r="R54" s="25"/>
-      <c r="S54" s="25"/>
-      <c r="T54" s="25"/>
-    </row>
-    <row r="55" spans="1:20" ht="15.75">
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="Q55" s="25"/>
-      <c r="R55" s="25"/>
-      <c r="S55" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="T55" s="36">
-        <f>SUM(T30,T38,T46,T53)</f>
-        <v>1927</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" ht="15.75">
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="Q56" s="25"/>
-      <c r="R56" s="25"/>
-      <c r="S56" s="25"/>
-      <c r="T56" s="25"/>
-    </row>
-    <row r="57" spans="1:20">
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-    </row>
-    <row r="58" spans="1:20">
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-    </row>
-    <row r="59" spans="1:20">
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-    </row>
-    <row r="60" spans="1:20">
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-    </row>
-    <row r="61" spans="1:20">
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="24"/>
-    </row>
-    <row r="62" spans="1:20">
-      <c r="B62" s="24"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-    </row>
-    <row r="63" spans="1:20">
-      <c r="C63" s="18"/>
-    </row>
-    <row r="72" spans="3:3">
-      <c r="C72" s="18"/>
-    </row>
-    <row r="81" spans="3:3">
-      <c r="C81" s="18"/>
-    </row>
-    <row r="90" spans="3:3">
-      <c r="C90" s="18"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596E2461-13EE-47CE-B33E-C598E8D4EA7B}">
-  <dimension ref="A2:AO33"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="2" spans="1:41" ht="16.149999999999999" thickBot="1">
+    <row r="2" spans="1:41" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
         <v>56</v>
       </c>
@@ -7747,7 +5913,7 @@
       <c r="T2" s="25"/>
       <c r="AO2" s="14"/>
     </row>
-    <row r="3" spans="1:41" ht="16.149999999999999" thickBot="1">
+    <row r="3" spans="1:41" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="15" t="s">
         <v>101</v>
       </c>
@@ -7795,7 +5961,7 @@
       <c r="T3" s="25"/>
       <c r="AO3" s="16"/>
     </row>
-    <row r="4" spans="1:41" ht="16.149999999999999" thickBot="1">
+    <row r="4" spans="1:41" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="15" t="s">
         <v>1</v>
       </c>
@@ -7847,7 +6013,7 @@
       <c r="T4" s="25"/>
       <c r="AO4" s="16"/>
     </row>
-    <row r="5" spans="1:41" ht="16.149999999999999" thickBot="1">
+    <row r="5" spans="1:41" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="15" t="s">
         <v>91</v>
       </c>
@@ -7904,7 +6070,7 @@
       <c r="T5" s="25"/>
       <c r="AO5" s="16"/>
     </row>
-    <row r="6" spans="1:41" ht="16.149999999999999" thickBot="1">
+    <row r="6" spans="1:41" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -7955,7 +6121,7 @@
       <c r="T6" s="25"/>
       <c r="AO6" s="16"/>
     </row>
-    <row r="7" spans="1:41" ht="16.149999999999999" thickBot="1">
+    <row r="7" spans="1:41" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="15" t="s">
         <v>92</v>
       </c>
@@ -8003,7 +6169,7 @@
       <c r="T7" s="25"/>
       <c r="AO7" s="16"/>
     </row>
-    <row r="8" spans="1:41" ht="15.75">
+    <row r="8" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -8011,70 +6177,70 @@
         <v>91</v>
       </c>
       <c r="C8" s="21">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D8" s="21">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E8" s="21">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="F8" s="21">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G8" s="21">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H8" s="21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8">
-        <v>759</v>
+        <v>700</v>
       </c>
       <c r="J8" s="21">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="K8" s="21">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="L8" s="21">
-        <v>243</v>
+        <v>199</v>
       </c>
       <c r="M8" s="21">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="N8" s="21">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O8" s="21">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P8">
-        <v>853</v>
+        <v>753</v>
       </c>
       <c r="Q8" s="36" t="s">
         <v>104</v>
       </c>
       <c r="R8" s="25">
         <f>SUM(I8,P8)</f>
-        <v>1612</v>
+        <v>1453</v>
       </c>
       <c r="S8" s="36" t="s">
         <v>103</v>
       </c>
       <c r="T8" s="25">
         <f>SUM(R5, R8)</f>
-        <v>2066</v>
+        <v>1907</v>
       </c>
       <c r="AO8" s="22"/>
     </row>
-    <row r="9" spans="1:41" ht="15.75">
+    <row r="9" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q9" s="25"/>
       <c r="R9" s="25"/>
       <c r="S9" s="25"/>
       <c r="T9" s="25"/>
     </row>
-    <row r="10" spans="1:41" ht="16.149999999999999" thickBot="1">
+    <row r="10" spans="1:41" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="14" t="s">
         <v>25</v>
       </c>
@@ -8114,7 +6280,7 @@
       <c r="S10" s="25"/>
       <c r="T10" s="25"/>
     </row>
-    <row r="11" spans="1:41" ht="16.149999999999999" thickBot="1">
+    <row r="11" spans="1:41" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="15" t="s">
         <v>101</v>
       </c>
@@ -8160,7 +6326,7 @@
       <c r="S11" s="25"/>
       <c r="T11" s="25"/>
     </row>
-    <row r="12" spans="1:41" ht="16.149999999999999" thickBot="1">
+    <row r="12" spans="1:41" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="15" t="s">
         <v>1</v>
       </c>
@@ -8211,7 +6377,7 @@
       <c r="S12" s="25"/>
       <c r="T12" s="25"/>
     </row>
-    <row r="13" spans="1:41" ht="16.149999999999999" thickBot="1">
+    <row r="13" spans="1:41" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="15" t="s">
         <v>91</v>
       </c>
@@ -8267,7 +6433,7 @@
       <c r="S13" s="25"/>
       <c r="T13" s="25"/>
     </row>
-    <row r="14" spans="1:41" ht="16.149999999999999" thickBot="1">
+    <row r="14" spans="1:41" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>89</v>
       </c>
@@ -8317,7 +6483,7 @@
       <c r="S14" s="25"/>
       <c r="T14" s="25"/>
     </row>
-    <row r="15" spans="1:41" ht="16.149999999999999" thickBot="1">
+    <row r="15" spans="1:41" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="15" t="s">
         <v>92</v>
       </c>
@@ -8364,7 +6530,7 @@
       <c r="S15" s="25"/>
       <c r="T15" s="25"/>
     </row>
-    <row r="16" spans="1:41" ht="15.75">
+    <row r="16" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -8372,16 +6538,16 @@
         <v>91</v>
       </c>
       <c r="C16" s="42">
-        <v>603</v>
+        <v>292</v>
       </c>
       <c r="D16" s="42">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="E16" s="42">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F16" s="42">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G16" s="42">
         <v>59</v>
@@ -8390,45 +6556,45 @@
         <v>12</v>
       </c>
       <c r="I16" s="37">
-        <v>1141</v>
+        <v>770</v>
       </c>
       <c r="J16" s="38">
-        <v>569</v>
+        <v>265</v>
       </c>
       <c r="K16" s="42">
-        <v>374</v>
+        <v>251</v>
       </c>
       <c r="L16" s="42">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="M16" s="42">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="N16" s="42">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="O16" s="42">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P16">
-        <v>1335</v>
+        <v>867</v>
       </c>
       <c r="Q16" s="36" t="s">
         <v>104</v>
       </c>
       <c r="R16" s="25">
         <f>SUM(I16,P16)</f>
-        <v>2476</v>
+        <v>1637</v>
       </c>
       <c r="S16" s="36" t="s">
         <v>103</v>
       </c>
       <c r="T16" s="25">
         <f>SUM(R13, R16)</f>
-        <v>2999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="15.75">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
@@ -8447,7 +6613,7 @@
       <c r="S17" s="25"/>
       <c r="T17" s="25"/>
     </row>
-    <row r="18" spans="1:20" ht="16.149999999999999" thickBot="1">
+    <row r="18" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="43" t="s">
         <v>11</v>
       </c>
@@ -8490,7 +6656,7 @@
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
     </row>
-    <row r="19" spans="1:20" ht="16.149999999999999" thickBot="1">
+    <row r="19" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>101</v>
       </c>
@@ -8536,7 +6702,7 @@
       <c r="S19" s="25"/>
       <c r="T19" s="25"/>
     </row>
-    <row r="20" spans="1:20" ht="16.149999999999999" thickBot="1">
+    <row r="20" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>1</v>
       </c>
@@ -8587,7 +6753,7 @@
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
     </row>
-    <row r="21" spans="1:20" ht="16.149999999999999" thickBot="1">
+    <row r="21" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>91</v>
       </c>
@@ -8643,7 +6809,7 @@
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
     </row>
-    <row r="22" spans="1:20" ht="16.149999999999999" thickBot="1">
+    <row r="22" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -8693,7 +6859,7 @@
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
     </row>
-    <row r="23" spans="1:20" ht="16.149999999999999" thickBot="1">
+    <row r="23" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>92</v>
       </c>
@@ -8740,7 +6906,7 @@
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
+    <row r="24" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -8748,63 +6914,63 @@
         <v>91</v>
       </c>
       <c r="C24" s="37">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="D24" s="38">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="E24" s="38">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="F24" s="38">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G24" s="38">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H24" s="38">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I24" s="37">
-        <v>1114</v>
+        <v>1013</v>
       </c>
       <c r="J24" s="38">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="K24" s="38">
-        <v>306</v>
+        <v>253</v>
       </c>
       <c r="L24" s="38">
-        <v>301</v>
+        <v>250</v>
       </c>
       <c r="M24" s="38">
+        <v>101</v>
+      </c>
+      <c r="N24" s="38">
         <v>126</v>
       </c>
-      <c r="N24" s="38">
-        <v>146</v>
-      </c>
       <c r="O24" s="38">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="P24">
-        <v>1235</v>
+        <v>1033</v>
       </c>
       <c r="Q24" s="36" t="s">
         <v>104</v>
       </c>
       <c r="R24" s="25">
         <f>SUM(I24,P24)</f>
-        <v>2349</v>
+        <v>2046</v>
       </c>
       <c r="S24" s="36" t="s">
         <v>103</v>
       </c>
       <c r="T24" s="25">
         <f>SUM(R21, R24)</f>
-        <v>2765</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="16.149999999999999" thickBot="1">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="43" t="s">
         <v>12</v>
       </c>
@@ -8845,7 +7011,7 @@
       <c r="S25" s="25"/>
       <c r="T25" s="25"/>
     </row>
-    <row r="26" spans="1:20" ht="16.149999999999999" thickBot="1">
+    <row r="26" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>101</v>
       </c>
@@ -8891,7 +7057,7 @@
       <c r="S26" s="25"/>
       <c r="T26" s="25"/>
     </row>
-    <row r="27" spans="1:20" ht="16.149999999999999" thickBot="1">
+    <row r="27" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>1</v>
       </c>
@@ -8942,7 +7108,7 @@
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
     </row>
-    <row r="28" spans="1:20" ht="16.149999999999999" thickBot="1">
+    <row r="28" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>91</v>
       </c>
@@ -8998,7 +7164,7 @@
       <c r="S28" s="25"/>
       <c r="T28" s="25"/>
     </row>
-    <row r="29" spans="1:20" ht="16.149999999999999" thickBot="1">
+    <row r="29" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>89</v>
       </c>
@@ -9048,7 +7214,7 @@
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
     </row>
-    <row r="30" spans="1:20" ht="16.149999999999999" thickBot="1">
+    <row r="30" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>92</v>
       </c>
@@ -9095,7 +7261,7 @@
       <c r="S30" s="25"/>
       <c r="T30" s="25"/>
     </row>
-    <row r="31" spans="1:20" ht="15.75">
+    <row r="31" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -9103,69 +7269,69 @@
         <v>91</v>
       </c>
       <c r="C31">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="17">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="E31" s="17">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F31" s="17">
         <v>44</v>
       </c>
       <c r="G31" s="17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H31" s="17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I31">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="J31">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K31" s="17">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="L31" s="17">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="M31" s="17">
         <v>62</v>
       </c>
       <c r="N31" s="17">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O31" s="17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P31">
-        <v>599</v>
+        <v>576</v>
       </c>
       <c r="Q31" s="36" t="s">
         <v>104</v>
       </c>
       <c r="R31" s="25">
         <f>SUM(I31,P31)</f>
-        <v>1148</v>
+        <v>1106</v>
       </c>
       <c r="S31" s="36" t="s">
         <v>103</v>
       </c>
       <c r="T31" s="25">
         <f>SUM(R28, R31)</f>
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="15.75">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q32" s="25"/>
       <c r="R32" s="25"/>
       <c r="S32" s="25"/>
       <c r="T32" s="25"/>
     </row>
-    <row r="33" spans="2:20" ht="15.75">
+    <row r="33" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -9179,7 +7345,7 @@
       </c>
       <c r="T33" s="36">
         <f>SUM(T8,T16,T24,T31)</f>
-        <v>9496</v>
+        <v>8153</v>
       </c>
     </row>
   </sheetData>
@@ -9188,31 +7354,1989 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AO90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="18" width="14.44140625" customWidth="1"/>
+    <col min="19" max="19" width="26.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="E3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="E4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="9"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N24" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="AO24" s="14"/>
+    </row>
+    <row r="25" spans="1:41" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="AO25" s="16"/>
+    </row>
+    <row r="26" spans="1:41" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="AO26" s="16"/>
+    </row>
+    <row r="27" spans="1:41" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="19">
+        <v>51</v>
+      </c>
+      <c r="D27" s="17">
+        <v>58</v>
+      </c>
+      <c r="E27" s="17">
+        <v>53</v>
+      </c>
+      <c r="F27" s="17">
+        <v>33</v>
+      </c>
+      <c r="G27" s="17">
+        <v>23</v>
+      </c>
+      <c r="H27" s="17">
+        <v>14</v>
+      </c>
+      <c r="I27" s="17">
+        <v>232</v>
+      </c>
+      <c r="J27" s="19">
+        <v>38</v>
+      </c>
+      <c r="K27" s="17">
+        <v>59</v>
+      </c>
+      <c r="L27" s="17">
+        <v>51</v>
+      </c>
+      <c r="M27" s="17">
+        <v>33</v>
+      </c>
+      <c r="N27" s="17">
+        <v>26</v>
+      </c>
+      <c r="O27" s="17">
+        <v>16</v>
+      </c>
+      <c r="P27" s="16">
+        <v>223</v>
+      </c>
+      <c r="Q27" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="R27" s="25">
+        <f>SUM(I27,P27)</f>
+        <v>455</v>
+      </c>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="AO27" s="16"/>
+    </row>
+    <row r="28" spans="1:41" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="14">
+        <v>13.125</v>
+      </c>
+      <c r="D28" s="14">
+        <v>18.75</v>
+      </c>
+      <c r="E28" s="14">
+        <v>22.5</v>
+      </c>
+      <c r="F28" s="14">
+        <v>26.25</v>
+      </c>
+      <c r="G28" s="14">
+        <v>39.375</v>
+      </c>
+      <c r="H28" s="14">
+        <v>33.125</v>
+      </c>
+      <c r="I28" s="14">
+        <v>21.25</v>
+      </c>
+      <c r="J28" s="14">
+        <v>19.375</v>
+      </c>
+      <c r="K28" s="14">
+        <v>23.75</v>
+      </c>
+      <c r="L28" s="14">
+        <v>26.875</v>
+      </c>
+      <c r="M28" s="14">
+        <v>27.5</v>
+      </c>
+      <c r="N28" s="14">
+        <v>30</v>
+      </c>
+      <c r="O28" s="14">
+        <v>38.125</v>
+      </c>
+      <c r="P28" s="14">
+        <v>26.875</v>
+      </c>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="AO28" s="16"/>
+    </row>
+    <row r="29" spans="1:41" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="14">
+        <v>10.9375</v>
+      </c>
+      <c r="D29" s="14">
+        <v>13.75</v>
+      </c>
+      <c r="E29" s="14">
+        <v>16.875</v>
+      </c>
+      <c r="F29" s="14">
+        <v>17.5</v>
+      </c>
+      <c r="G29" s="14">
+        <v>15.3125</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I29" s="14">
+        <v>17.5</v>
+      </c>
+      <c r="J29" s="14">
+        <v>15.625</v>
+      </c>
+      <c r="K29" s="14">
+        <v>21.875</v>
+      </c>
+      <c r="L29" s="14">
+        <v>17.1875</v>
+      </c>
+      <c r="M29" s="14">
+        <v>16.25</v>
+      </c>
+      <c r="N29" s="14">
+        <v>13.125</v>
+      </c>
+      <c r="O29" s="14">
+        <v>15.625</v>
+      </c>
+      <c r="P29" s="14">
+        <v>18.75</v>
+      </c>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="AO29" s="16"/>
+    </row>
+    <row r="30" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="21">
+        <v>205</v>
+      </c>
+      <c r="D30" s="21">
+        <v>151</v>
+      </c>
+      <c r="E30" s="21">
+        <v>210</v>
+      </c>
+      <c r="F30" s="21">
+        <v>94</v>
+      </c>
+      <c r="G30" s="21">
+        <v>78</v>
+      </c>
+      <c r="H30" s="21">
+        <v>21</v>
+      </c>
+      <c r="I30" s="17">
+        <v>789</v>
+      </c>
+      <c r="J30" s="21">
+        <v>163</v>
+      </c>
+      <c r="K30" s="21">
+        <v>192</v>
+      </c>
+      <c r="L30" s="21">
+        <v>243</v>
+      </c>
+      <c r="M30" s="21">
+        <v>102</v>
+      </c>
+      <c r="N30" s="21">
+        <v>114</v>
+      </c>
+      <c r="O30" s="21">
+        <v>39</v>
+      </c>
+      <c r="P30" s="21">
+        <v>888</v>
+      </c>
+      <c r="Q30" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="R30" s="25">
+        <f>SUM(I30,P30)</f>
+        <v>1677</v>
+      </c>
+      <c r="S30" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="T30" s="25">
+        <f>SUM(R27, R30)</f>
+        <v>2132</v>
+      </c>
+      <c r="AO30" s="22"/>
+    </row>
+    <row r="31" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+    </row>
+    <row r="32" spans="1:41" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+    </row>
+    <row r="33" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+    </row>
+    <row r="34" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+    </row>
+    <row r="35" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="17">
+        <v>61</v>
+      </c>
+      <c r="D35" s="17">
+        <v>85</v>
+      </c>
+      <c r="E35" s="17">
+        <v>63</v>
+      </c>
+      <c r="F35" s="17">
+        <v>34</v>
+      </c>
+      <c r="G35" s="17">
+        <v>20</v>
+      </c>
+      <c r="H35" s="17">
+        <v>5</v>
+      </c>
+      <c r="I35" s="17">
+        <v>268</v>
+      </c>
+      <c r="J35" s="17">
+        <v>56</v>
+      </c>
+      <c r="K35" s="17">
+        <v>72</v>
+      </c>
+      <c r="L35" s="17">
+        <v>57</v>
+      </c>
+      <c r="M35" s="17">
+        <v>41</v>
+      </c>
+      <c r="N35" s="17">
+        <v>25</v>
+      </c>
+      <c r="O35" s="17">
+        <v>14</v>
+      </c>
+      <c r="P35">
+        <v>265</v>
+      </c>
+      <c r="Q35" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="R35" s="25">
+        <f>SUM(I35,P35)</f>
+        <v>533</v>
+      </c>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+    </row>
+    <row r="36" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="14">
+        <v>14.375</v>
+      </c>
+      <c r="D36" s="14">
+        <v>16.25</v>
+      </c>
+      <c r="E36" s="14">
+        <v>25</v>
+      </c>
+      <c r="F36" s="14">
+        <v>28.75</v>
+      </c>
+      <c r="G36" s="14">
+        <v>29.375</v>
+      </c>
+      <c r="H36" s="14">
+        <v>45</v>
+      </c>
+      <c r="I36" s="14">
+        <v>20</v>
+      </c>
+      <c r="J36" s="14">
+        <v>20</v>
+      </c>
+      <c r="K36" s="14">
+        <v>23.125</v>
+      </c>
+      <c r="L36" s="14">
+        <v>26.25</v>
+      </c>
+      <c r="M36" s="14">
+        <v>33.75</v>
+      </c>
+      <c r="N36" s="14">
+        <v>40.625</v>
+      </c>
+      <c r="O36" s="14">
+        <v>43.75</v>
+      </c>
+      <c r="P36" s="14">
+        <v>27.5</v>
+      </c>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+    </row>
+    <row r="37" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="14">
+        <v>12.5</v>
+      </c>
+      <c r="D37" s="14">
+        <v>14.375</v>
+      </c>
+      <c r="E37" s="14">
+        <v>15.625</v>
+      </c>
+      <c r="F37" s="14">
+        <v>15</v>
+      </c>
+      <c r="G37" s="14">
+        <v>15.625</v>
+      </c>
+      <c r="H37" s="14">
+        <v>10</v>
+      </c>
+      <c r="I37" s="14">
+        <v>17.5</v>
+      </c>
+      <c r="J37" s="14">
+        <v>15.625</v>
+      </c>
+      <c r="K37" s="14">
+        <v>18.4375</v>
+      </c>
+      <c r="L37" s="14">
+        <v>16.25</v>
+      </c>
+      <c r="M37" s="14">
+        <v>17.5</v>
+      </c>
+      <c r="N37" s="14">
+        <v>20.3125</v>
+      </c>
+      <c r="O37" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="P37" s="14">
+        <v>20.9375</v>
+      </c>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+    </row>
+    <row r="38" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="21">
+        <v>603</v>
+      </c>
+      <c r="D38" s="21">
+        <v>253</v>
+      </c>
+      <c r="E38" s="21">
+        <v>137</v>
+      </c>
+      <c r="F38" s="21">
+        <v>77</v>
+      </c>
+      <c r="G38" s="21">
+        <v>59</v>
+      </c>
+      <c r="H38" s="21">
+        <v>12</v>
+      </c>
+      <c r="I38" s="17">
+        <v>1195</v>
+      </c>
+      <c r="J38" s="17">
+        <v>569</v>
+      </c>
+      <c r="K38" s="21">
+        <v>374</v>
+      </c>
+      <c r="L38" s="21">
+        <v>190</v>
+      </c>
+      <c r="M38" s="21">
+        <v>111</v>
+      </c>
+      <c r="N38" s="21">
+        <v>75</v>
+      </c>
+      <c r="O38" s="21">
+        <v>16</v>
+      </c>
+      <c r="P38" s="21">
+        <v>1397</v>
+      </c>
+      <c r="Q38" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="R38" s="25">
+        <f>SUM(I38,P38)</f>
+        <v>2592</v>
+      </c>
+      <c r="S38" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="T38" s="25">
+        <f>SUM(R35, R38)</f>
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+    </row>
+    <row r="40" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M40" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N40" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O40" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="25"/>
+    </row>
+    <row r="41" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O41" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+    </row>
+    <row r="42" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O42" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="P42" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
+    </row>
+    <row r="43" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="19">
+        <v>79</v>
+      </c>
+      <c r="D43" s="17">
+        <v>66</v>
+      </c>
+      <c r="E43" s="17">
+        <v>41</v>
+      </c>
+      <c r="F43" s="17">
+        <v>20</v>
+      </c>
+      <c r="G43" s="17">
+        <v>5</v>
+      </c>
+      <c r="H43" s="17">
+        <v>3</v>
+      </c>
+      <c r="I43" s="17">
+        <v>214</v>
+      </c>
+      <c r="J43" s="19">
+        <v>57</v>
+      </c>
+      <c r="K43" s="17">
+        <v>51</v>
+      </c>
+      <c r="L43" s="17">
+        <v>67</v>
+      </c>
+      <c r="M43" s="17">
+        <v>18</v>
+      </c>
+      <c r="N43" s="17">
+        <v>7</v>
+      </c>
+      <c r="O43" s="17">
+        <v>5</v>
+      </c>
+      <c r="P43">
+        <v>205</v>
+      </c>
+      <c r="Q43" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="R43" s="25">
+        <f>SUM(I43,P43)</f>
+        <v>419</v>
+      </c>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+    </row>
+    <row r="44" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="14">
+        <v>17.5</v>
+      </c>
+      <c r="D44" s="14">
+        <v>24.375</v>
+      </c>
+      <c r="E44" s="14">
+        <v>30</v>
+      </c>
+      <c r="F44" s="14">
+        <v>33.125</v>
+      </c>
+      <c r="G44" s="14">
+        <v>28.75</v>
+      </c>
+      <c r="H44" s="14">
+        <v>45</v>
+      </c>
+      <c r="I44" s="14">
+        <v>23.75</v>
+      </c>
+      <c r="J44" s="14">
+        <v>20</v>
+      </c>
+      <c r="K44" s="14">
+        <v>25</v>
+      </c>
+      <c r="L44" s="14">
+        <v>27.5</v>
+      </c>
+      <c r="M44" s="14">
+        <v>36.25</v>
+      </c>
+      <c r="N44" s="14">
+        <v>31.25</v>
+      </c>
+      <c r="O44" s="14">
+        <v>51.25</v>
+      </c>
+      <c r="P44" s="14">
+        <v>26.25</v>
+      </c>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="25"/>
+    </row>
+    <row r="45" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="14">
+        <v>17.1875</v>
+      </c>
+      <c r="D45" s="14">
+        <v>16.25</v>
+      </c>
+      <c r="E45" s="14">
+        <v>17.5</v>
+      </c>
+      <c r="F45" s="14">
+        <v>28.4375</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H45" s="14">
+        <v>11.875</v>
+      </c>
+      <c r="I45" s="14">
+        <v>20</v>
+      </c>
+      <c r="J45" s="14">
+        <v>18.75</v>
+      </c>
+      <c r="K45" s="14">
+        <v>15.625</v>
+      </c>
+      <c r="L45" s="14">
+        <v>12.5</v>
+      </c>
+      <c r="M45" s="14">
+        <v>17.5</v>
+      </c>
+      <c r="N45" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="O45" s="14">
+        <v>13.75</v>
+      </c>
+      <c r="P45" s="14">
+        <v>16.25</v>
+      </c>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="25"/>
+      <c r="T45" s="25"/>
+    </row>
+    <row r="46" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="17">
+        <v>327</v>
+      </c>
+      <c r="D46" s="17">
+        <v>274</v>
+      </c>
+      <c r="E46" s="17">
+        <v>290</v>
+      </c>
+      <c r="F46" s="17">
+        <v>83</v>
+      </c>
+      <c r="G46" s="17">
+        <v>111</v>
+      </c>
+      <c r="H46" s="17">
+        <v>29</v>
+      </c>
+      <c r="I46" s="17">
+        <v>1195</v>
+      </c>
+      <c r="J46" s="17">
+        <v>303</v>
+      </c>
+      <c r="K46" s="17">
+        <v>306</v>
+      </c>
+      <c r="L46" s="17">
+        <v>301</v>
+      </c>
+      <c r="M46" s="17">
+        <v>126</v>
+      </c>
+      <c r="N46" s="17">
+        <v>146</v>
+      </c>
+      <c r="O46" s="17">
+        <v>53</v>
+      </c>
+      <c r="P46" s="17">
+        <v>1312</v>
+      </c>
+      <c r="Q46" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="R46" s="25">
+        <f>SUM(I46,P46)</f>
+        <v>2507</v>
+      </c>
+      <c r="S46" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="T46" s="25">
+        <f>SUM(R43, R46)</f>
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C47" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K47" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L47" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M47" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N47" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="O47" s="13"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="25"/>
+    </row>
+    <row r="48" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O48" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="25"/>
+    </row>
+    <row r="49" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O49" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="P49" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q49" s="25"/>
+      <c r="R49" s="25"/>
+      <c r="S49" s="25"/>
+      <c r="T49" s="25"/>
+    </row>
+    <row r="50" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="19">
+        <v>57</v>
+      </c>
+      <c r="D50" s="17">
+        <v>96</v>
+      </c>
+      <c r="E50" s="17">
+        <v>77</v>
+      </c>
+      <c r="F50" s="17">
+        <v>40</v>
+      </c>
+      <c r="G50" s="17">
+        <v>12</v>
+      </c>
+      <c r="H50" s="17">
+        <v>8</v>
+      </c>
+      <c r="I50" s="17">
+        <v>290</v>
+      </c>
+      <c r="J50" s="19">
+        <v>41</v>
+      </c>
+      <c r="K50" s="17">
+        <v>80</v>
+      </c>
+      <c r="L50" s="17">
+        <v>49</v>
+      </c>
+      <c r="M50" s="17">
+        <v>34</v>
+      </c>
+      <c r="N50" s="17">
+        <v>14</v>
+      </c>
+      <c r="O50" s="17">
+        <v>12</v>
+      </c>
+      <c r="P50">
+        <v>230</v>
+      </c>
+      <c r="Q50" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="R50" s="25">
+        <f>SUM(I50,P50)</f>
+        <v>520</v>
+      </c>
+      <c r="S50" s="25"/>
+      <c r="T50" s="25"/>
+    </row>
+    <row r="51" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="14">
+        <v>14.375</v>
+      </c>
+      <c r="D51" s="14">
+        <v>18.75</v>
+      </c>
+      <c r="E51" s="14">
+        <v>26.875</v>
+      </c>
+      <c r="F51" s="14">
+        <v>33.75</v>
+      </c>
+      <c r="G51" s="14">
+        <v>40.625</v>
+      </c>
+      <c r="H51" s="14">
+        <v>37.5</v>
+      </c>
+      <c r="I51" s="14">
+        <v>22.5</v>
+      </c>
+      <c r="J51" s="14">
+        <v>20</v>
+      </c>
+      <c r="K51" s="14">
+        <v>25.625</v>
+      </c>
+      <c r="L51" s="14">
+        <v>27.5</v>
+      </c>
+      <c r="M51" s="14">
+        <v>37.5</v>
+      </c>
+      <c r="N51" s="14">
+        <v>46.875</v>
+      </c>
+      <c r="O51" s="14">
+        <v>50.625</v>
+      </c>
+      <c r="P51" s="14">
+        <v>28.75</v>
+      </c>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="25"/>
+      <c r="T51" s="25"/>
+    </row>
+    <row r="52" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="14">
+        <v>16.875</v>
+      </c>
+      <c r="D52" s="14">
+        <v>13.75</v>
+      </c>
+      <c r="E52" s="14">
+        <v>19.6875</v>
+      </c>
+      <c r="F52" s="14">
+        <v>21.875</v>
+      </c>
+      <c r="G52" s="14">
+        <v>17.5</v>
+      </c>
+      <c r="H52" s="14">
+        <v>20.625</v>
+      </c>
+      <c r="I52" s="14">
+        <v>21.5625</v>
+      </c>
+      <c r="J52" s="14">
+        <v>12.5</v>
+      </c>
+      <c r="K52" s="14">
+        <v>25.9375</v>
+      </c>
+      <c r="L52" s="14">
+        <v>22.8125</v>
+      </c>
+      <c r="M52" s="14">
+        <v>21.25</v>
+      </c>
+      <c r="N52" s="14">
+        <v>23.125</v>
+      </c>
+      <c r="O52" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="P52" s="14">
+        <v>25.3125</v>
+      </c>
+      <c r="Q52" s="25"/>
+      <c r="R52" s="25"/>
+      <c r="S52" s="25"/>
+      <c r="T52" s="25"/>
+    </row>
+    <row r="53" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53">
+        <v>29</v>
+      </c>
+      <c r="D53" s="17">
+        <v>304</v>
+      </c>
+      <c r="E53" s="17">
+        <v>146</v>
+      </c>
+      <c r="F53" s="17">
+        <v>44</v>
+      </c>
+      <c r="G53" s="17">
+        <v>20</v>
+      </c>
+      <c r="H53" s="17">
+        <v>6</v>
+      </c>
+      <c r="I53" s="17">
+        <v>606</v>
+      </c>
+      <c r="J53" s="17">
+        <v>30</v>
+      </c>
+      <c r="K53" s="17">
+        <v>278</v>
+      </c>
+      <c r="L53" s="17">
+        <v>194</v>
+      </c>
+      <c r="M53" s="17">
+        <v>62</v>
+      </c>
+      <c r="N53" s="17">
+        <v>25</v>
+      </c>
+      <c r="O53" s="17">
+        <v>10</v>
+      </c>
+      <c r="P53" s="17">
+        <v>663</v>
+      </c>
+      <c r="Q53" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="R53" s="25">
+        <f>SUM(I53,P53)</f>
+        <v>1269</v>
+      </c>
+      <c r="S53" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="T53" s="25">
+        <f>SUM(R50, R53)</f>
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Q54" s="25"/>
+      <c r="R54" s="25"/>
+      <c r="S54" s="25"/>
+      <c r="T54" s="25"/>
+    </row>
+    <row r="55" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="Q55" s="25"/>
+      <c r="R55" s="25"/>
+      <c r="S55" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="T55" s="36">
+        <f>SUM(T30,T38,T46,T53)</f>
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="Q56" s="25"/>
+      <c r="R56" s="25"/>
+      <c r="S56" s="25"/>
+      <c r="T56" s="25"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="24"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B62" s="24"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C63" s="18"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C72" s="18"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C81" s="18"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C90" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J123"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B60" sqref="B60:H63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1328125" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>54</v>
       </c>
@@ -9220,7 +9344,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -9231,7 +9355,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -9242,7 +9366,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -9253,7 +9377,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -9264,12 +9388,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -9289,7 +9413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -9312,7 +9436,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -9335,7 +9459,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -9358,7 +9482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -9381,7 +9505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>13</v>
       </c>
@@ -9389,7 +9513,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -9401,7 +9525,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -9413,7 +9537,7 @@
       </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -9424,7 +9548,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -9435,17 +9559,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>54</v>
       </c>
@@ -9453,7 +9577,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -9464,7 +9588,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -9475,7 +9599,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -9486,7 +9610,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -9497,12 +9621,12 @@
         <v>599</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>54</v>
       </c>
@@ -9510,12 +9634,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -9526,7 +9650,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -9537,7 +9661,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -9548,7 +9672,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -9559,12 +9683,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="18">
+    <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>53</v>
       </c>
@@ -9575,7 +9699,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>30</v>
       </c>
@@ -9586,7 +9710,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>32</v>
       </c>
@@ -9606,7 +9730,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
@@ -9626,7 +9750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>33</v>
       </c>
@@ -9646,7 +9770,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>34</v>
       </c>
@@ -9666,7 +9790,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>37</v>
       </c>
@@ -9686,7 +9810,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>38</v>
       </c>
@@ -9706,7 +9830,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -9726,7 +9850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
@@ -9746,7 +9870,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -9766,7 +9890,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>36</v>
       </c>
@@ -9777,7 +9901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>41</v>
       </c>
@@ -9788,7 +9912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>42</v>
       </c>
@@ -9799,7 +9923,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>48</v>
       </c>
@@ -9810,12 +9934,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" t="s">
         <v>3</v>
@@ -9836,7 +9960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -9863,7 +9987,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>25</v>
       </c>
@@ -9890,7 +10014,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -9917,7 +10041,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -9944,12 +10068,12 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15.75">
+    <row r="65" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" t="s">
         <v>3</v>
@@ -9970,7 +10094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -9993,7 +10117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -10016,7 +10140,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>18</v>
       </c>
@@ -10039,7 +10163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -10062,7 +10186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15.75">
+    <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>53</v>
       </c>
@@ -10085,7 +10209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>68</v>
       </c>
@@ -10108,7 +10232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>69</v>
       </c>
@@ -10131,7 +10255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>70</v>
       </c>
@@ -10154,7 +10278,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>22</v>
       </c>
@@ -10177,7 +10301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>27</v>
       </c>
@@ -10200,7 +10324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>71</v>
       </c>
@@ -10223,7 +10347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>28</v>
       </c>
@@ -10249,7 +10373,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>29</v>
       </c>
@@ -10272,7 +10396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>72</v>
       </c>
@@ -10295,7 +10419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -10324,7 +10448,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15.75">
+    <row r="86" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>53</v>
       </c>
@@ -10347,7 +10471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>20</v>
       </c>
@@ -10370,7 +10494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>73</v>
       </c>
@@ -10393,7 +10517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>74</v>
       </c>
@@ -10416,7 +10540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>75</v>
       </c>
@@ -10439,7 +10563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>21</v>
       </c>
@@ -10462,7 +10586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>76</v>
       </c>
@@ -10485,7 +10609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>77</v>
       </c>
@@ -10508,7 +10632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>23</v>
       </c>
@@ -10531,7 +10655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>24</v>
       </c>
@@ -10554,7 +10678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>26</v>
       </c>
@@ -10577,7 +10701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>78</v>
       </c>
@@ -10600,7 +10724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>79</v>
       </c>
@@ -10623,7 +10747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>80</v>
       </c>
@@ -10646,7 +10770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>81</v>
       </c>
@@ -10669,7 +10793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>58</v>
       </c>
@@ -10680,7 +10804,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>22</v>
       </c>
@@ -10691,7 +10815,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>59</v>
       </c>
@@ -10702,7 +10826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>84</v>
       </c>
@@ -10713,7 +10837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>61</v>
       </c>
@@ -10724,7 +10848,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>86</v>
       </c>
@@ -10735,7 +10859,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>83</v>
       </c>
@@ -10746,7 +10870,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>82</v>
       </c>
@@ -10757,7 +10881,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>60</v>
       </c>
@@ -10768,7 +10892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>3</v>
       </c>
@@ -10788,7 +10912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>22</v>
       </c>
@@ -10811,7 +10935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>59</v>
       </c>
@@ -10834,7 +10958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>84</v>
       </c>
@@ -10857,7 +10981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>61</v>
       </c>
@@ -10880,7 +11004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>85</v>
       </c>
@@ -10903,7 +11027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>83</v>
       </c>
@@ -10926,7 +11050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>82</v>
       </c>
@@ -10949,7 +11073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>60</v>
       </c>
@@ -10985,19 +11109,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:T35"/>
   <sheetViews>
     <sheetView topLeftCell="J1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4:T36"/>
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="10.796875" style="25"/>
+    <col min="1" max="16384" width="10.77734375" style="25"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:20" ht="16.149999999999999" thickBot="1">
+    <row r="4" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="28" t="s">
         <v>56</v>
       </c>
@@ -11040,7 +11164,7 @@
       </c>
       <c r="P4" s="28"/>
     </row>
-    <row r="5" spans="1:20" ht="16.149999999999999" thickBot="1">
+    <row r="5" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="29" t="s">
         <v>101</v>
       </c>
@@ -11083,7 +11207,7 @@
       </c>
       <c r="P5" s="35"/>
     </row>
-    <row r="6" spans="1:20" ht="16.149999999999999" thickBot="1">
+    <row r="6" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="29" t="s">
         <v>1</v>
       </c>
@@ -11130,7 +11254,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16.149999999999999" thickBot="1">
+    <row r="7" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="29" t="s">
         <v>91</v>
       </c>
@@ -11184,7 +11308,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.149999999999999" thickBot="1">
+    <row r="8" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="25" t="s">
         <v>89</v>
       </c>
@@ -11234,7 +11358,7 @@
         <v>26.875</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="16.149999999999999" thickBot="1">
+    <row r="9" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="29" t="s">
         <v>92</v>
       </c>
@@ -11281,7 +11405,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>90</v>
       </c>
@@ -11345,7 +11469,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16.149999999999999" thickBot="1">
+    <row r="12" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="28" t="s">
         <v>25</v>
       </c>
@@ -11381,7 +11505,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="16.149999999999999" thickBot="1">
+    <row r="13" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="29" t="s">
         <v>101</v>
       </c>
@@ -11423,7 +11547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="16.149999999999999" thickBot="1">
+    <row r="14" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="29" t="s">
         <v>1</v>
       </c>
@@ -11470,7 +11594,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="16.149999999999999" thickBot="1">
+    <row r="15" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="29" t="s">
         <v>91</v>
       </c>
@@ -11524,7 +11648,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="16.149999999999999" thickBot="1">
+    <row r="16" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="25" t="s">
         <v>89</v>
       </c>
@@ -11574,7 +11698,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="16.149999999999999" thickBot="1">
+    <row r="17" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="29" t="s">
         <v>92</v>
       </c>
@@ -11621,7 +11745,7 @@
         <v>20.9375</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>90</v>
       </c>
@@ -11685,7 +11809,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="16.149999999999999" thickBot="1">
+    <row r="20" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="28" t="s">
         <v>11</v>
       </c>
@@ -11724,7 +11848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="16.149999999999999" thickBot="1">
+    <row r="21" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="29" t="s">
         <v>101</v>
       </c>
@@ -11766,7 +11890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="16.149999999999999" thickBot="1">
+    <row r="22" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="29" t="s">
         <v>1</v>
       </c>
@@ -11813,7 +11937,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="16.149999999999999" thickBot="1">
+    <row r="23" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="29" t="s">
         <v>91</v>
       </c>
@@ -11867,7 +11991,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="16.149999999999999" thickBot="1">
+    <row r="24" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="25" t="s">
         <v>89</v>
       </c>
@@ -11917,7 +12041,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="16.149999999999999" thickBot="1">
+    <row r="25" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="29" t="s">
         <v>92</v>
       </c>
@@ -11964,7 +12088,7 @@
         <v>16.25</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
         <v>90</v>
       </c>
@@ -12028,7 +12152,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="16.149999999999999" thickBot="1">
+    <row r="27" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C27" s="28" t="s">
         <v>12</v>
       </c>
@@ -12065,7 +12189,7 @@
       </c>
       <c r="O27" s="32"/>
     </row>
-    <row r="28" spans="1:20" ht="16.149999999999999" thickBot="1">
+    <row r="28" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="29" t="s">
         <v>101</v>
       </c>
@@ -12107,7 +12231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="16.149999999999999" thickBot="1">
+    <row r="29" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="29" t="s">
         <v>1</v>
       </c>
@@ -12154,7 +12278,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="16.149999999999999" thickBot="1">
+    <row r="30" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="29" t="s">
         <v>91</v>
       </c>
@@ -12208,7 +12332,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="16.149999999999999" thickBot="1">
+    <row r="31" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="25" t="s">
         <v>89</v>
       </c>
@@ -12258,7 +12382,7 @@
         <v>28.75</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="16.149999999999999" thickBot="1">
+    <row r="32" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="29" t="s">
         <v>92</v>
       </c>
@@ -12305,7 +12429,7 @@
         <v>25.3125</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="25" t="s">
         <v>90</v>
       </c>
@@ -12369,7 +12493,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="S35" s="36" t="s">
         <v>102</v>
       </c>
